--- a/artifacts/recipes/new_data/allrecipescom/healthy/healthy_snacks.xlsx
+++ b/artifacts/recipes/new_data/allrecipescom/healthy/healthy_snacks.xlsx
@@ -1,39 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rIdSheet1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="@"/>
-  </numFmts>
-  <fonts count="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -41,26 +45,395 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>web-scraper-order</t>
@@ -83,7 +456,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>card-href</t>
+          <t>recipe_card-href</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -93,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>recipe_details_table</t>
+          <t>recipe_details</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -117,80 +490,48 @@
         </is>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="inlineStr">
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>1699658349-1</t>
         </is>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Healthy Snacks</t>
         </is>
       </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="K2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>1699658358-2</t>
         </is>
       </c>
-      <c r="B3" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D3" s="1" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hOavE2nWZQ3P75V1nKP86-ud6R4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/35974-70078f15a14149ed838f81c53e33e99b.jpg"
@@ -203,59 +544,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16005/broiled-mochi-with-nori-seaweed/</t>
         </is>
       </c>
-      <c r="F3" s="1" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Broiled Mochi with Nori Seaweed</t>
         </is>
       </c>
-      <c r="G3" s="1" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n5 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H3" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  frozen mochi squares\n\n\n¼ cup soy sauce, or to taste\n\n\n1 sheet nori (dry seaweed)"}]</t>
-        </is>
-      </c>
-      <c r="I3" s="1" t="inlineStr">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  frozen mochi squares\n\n\n¼ cup soy sauce, or to taste\n\n\n1 sheet nori (dry seaweed)'}]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 450 degrees F (275 degrees C)."},{"recipe_directions":"Dip mochi into soy sauce, then place onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until heated through, about 5 minutes."},{"recipe_directions":"Meanwhile, cut nori into eight strips. Heat strips in a large skillet over medium heat until warm, 1 to 2 minutes. Remove from the heat."},{"recipe_directions":"Wrap a nori strip around each mochi. Serve warm."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of soy sauce. The actual amount consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J3" s="1" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K3" s="1" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"105\nCalories\n\n\n0g \nFat\n\n\n23g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>1699658369-3</t>
         </is>
       </c>
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D4" s="1" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/GTyqR1KMjLxSRlgAXAAkWhZvQ8Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/687098-jicama-appetizer-Soup-Loving-Nicole-4x3-1-355ae75ddfb649998f3e936cf9bc2a9f.jpg"
@@ -269,59 +606,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/132280/jicama-appetizer/</t>
         </is>
       </c>
-      <c r="F4" s="1" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Jicama Appetizer</t>
         </is>
       </c>
-      <c r="G4" s="1" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H4" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  jicama, peeled and cut into bite-sized pieces\n\n\n2 tablespoons fresh lime juice\n\n\n2 tablespoons chili powder"}]</t>
-        </is>
-      </c>
-      <c r="I4" s="1" t="inlineStr">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  jicama, peeled and cut into bite-sized pieces\n\n\n2 tablespoons fresh lime juice\n\n\n2 tablespoons chili powder'}]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange jicama on a platter. Sprinkle lime juice and chili powder over the jicama. Serve immediately."}]</t>
         </is>
       </c>
-      <c r="J4" s="1" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K4" s="1" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"77\nCalories\n\n\n1g \nFat\n\n\n17g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="inlineStr">
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>1699658378-4</t>
         </is>
       </c>
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D5" s="1" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/WcbkOYTyg2PSXzb5dOvQhI2a31c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1355354-b28e0438bd4c4c9eb1ba413301a8e974.jpg"
@@ -334,59 +667,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E5" s="1" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222921/mawmaws-simple-fried-green-tomatoes/</t>
         </is>
       </c>
-      <c r="F5" s="1" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Mawmaw's Simple Fried Green Tomatoes</t>
         </is>
       </c>
-      <c r="G5" s="1" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H5" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 quart ice water, or as needed\n\n\n4  firm green tomatoes, cut into 1/4-inch slices\n\n\n1 cup canola oil, or as needed\n\n\n2 cups self-rising cornmeal \n\n\n2 cups all-purpose flour\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I5" s="1" t="inlineStr">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 quart ice water, or as needed\n\n\n4  firm green tomatoes, cut into 1/4-inch slices\n\n\n1 cup canola oil, or as needed\n\n\n2 cups self-rising cornmeal \n\n\n2 cups all-purpose flour\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Pour ice water into a large bowl and add tomatoes; soak for 5 minutes."},{"recipe_directions":"Meanwhile, heat 1/2 inch oil in a large skillet over medium-low heat."},{"recipe_directions":"Combine cornmeal and flour in a medium bowl. Remove tomatoes from ice water, one at a time, and coat lightly in cornmeal mixture; shake off any excess."},{"recipe_directions":"Working in batches, cook coated tomatoes in hot oil until edges are golden brown, about 4 minutes per side. Use a slotted spoon to remove tomatoes to a paper towel-lined plate. Sprinkle lightly with salt and serve hot."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of the breading ingredients. The actual amount of the breading consumed will vary. We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J5" s="1" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Tomatoes"},{"recipe_tags":"Fried Green Tomato Recipes"}]</t>
         </is>
       </c>
-      <c r="K5" s="1" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"280\nCalories\n\n\n4g \nFat\n\n\n54g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
         <is>
           <t>1699658385-5</t>
         </is>
       </c>
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D6" s="1" t="inlineStr">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/N8R7GEhHq_dn55Dn6YlMdvZ3HOE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1511x0:1513x2):format(webp)/8981464-38d7879a36b8429ba5c632372e8a5f6e.jpg"
@@ -399,59 +728,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E6" s="1" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/141006/mexican-jicama-snack/</t>
         </is>
       </c>
-      <c r="F6" s="1" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Mexican Jicama Snack</t>
         </is>
       </c>
-      <c r="G6" s="1" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H6" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large jicama\n\n\n2  lime, juiced\n\n\n1 tablespoon crushed red pepper, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I6" s="1" t="inlineStr">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large jicama\n\n\n2  lime, juiced\n\n\n1 tablespoon crushed red pepper, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Peel jicama and cut into French fry-sized sticks. Combine with lime juice and cayenne pepper in a medium bowl and toss to coat. Serve as finger food."}]</t>
         </is>
       </c>
-      <c r="J6" s="1" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K6" s="1" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"84\nCalories\n\n\n0g \nFat\n\n\n20g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="1" t="inlineStr">
+    <row r="7">
+      <c r="A7" t="inlineStr">
         <is>
           <t>1699658392-6</t>
         </is>
       </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D7" s="1" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/hFSY3z7mKjjWU9EkdaG0oaOEbL4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(599x0:601x2):format(webp)/2358966-whipped-banana-ice-cream-Rock_lobster-4x3-1-f2e52b4089fa4ed994d9229c35b795ba.jpg"
@@ -465,59 +790,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E7" s="1" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/242459/whipped-banana-ice-cream/</t>
         </is>
       </c>
-      <c r="F7" s="1" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Whipped Banana "Ice Cream"</t>
         </is>
       </c>
-      <c r="G7" s="1" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 1 hr 35 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H7" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2  bananas, peeled and sliced"}]</t>
-        </is>
-      </c>
-      <c r="I7" s="1" t="inlineStr">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2  bananas, peeled and sliced'}]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place sliced bananas in an airtight container and freeze until solid, about 1 1/2 hours."},{"recipe_directions":"Blend frozen bananas in a blender until whipped and smooth."},{"recipe_directions":"You can whip room-temperature bananas first and then freeze them, but they will have to thaw a bit before you can scoop it (it will freeze completely solid). This can be done, but it doesn't work as well."},{"recipe_directions":"You can certainly eat the whipped bananas alone, but I find that it always tastes wonderful to add some peanut butter or chocolate to the blender before whipping to give the \"ice cream\" some depth of flavor. Be creative and choose whatever you like!"}]</t>
         </is>
       </c>
-      <c r="J7" s="1" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K7" s="1" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"210\nCalories\n\n\n1g \nFat\n\n\n54g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="inlineStr">
+    <row r="8">
+      <c r="A8" t="inlineStr">
         <is>
           <t>1699658399-7</t>
         </is>
       </c>
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D8" s="1" t="inlineStr">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/emN7qIQkJjJYmbAsZzxEJ-jbn-s=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2393000-fecc4b9b1d644bb3833e6796bbf5e268.jpg"
@@ -530,59 +851,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E8" s="1" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244477/refreshing-banana-drink/</t>
         </is>
       </c>
-      <c r="F8" s="1" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Refreshing Banana Drink</t>
         </is>
       </c>
-      <c r="G8" s="1" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n1"}]</t>
         </is>
       </c>
-      <c r="H8" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup almond milk\n\n\n1 medium ripe banana\n\n\n4  ice cubes\n\n\n1 pinch ground cinnamon\n\n\n1 dash vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I8" s="1" t="inlineStr">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup almond milk\n\n\n1 medium ripe banana\n\n\n4  ice cubes\n\n\n1 pinch ground cinnamon\n\n\n1 dash vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Combine almond milk, banana, ice cubes, cinnamon, and vanilla in a blender; blend on medium speed until frothy and smooth, about 1 minute."}]</t>
         </is>
       </c>
-      <c r="J8" s="1" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Breakfast and Brunch"},{"recipe_tags":"Drinks"}]</t>
         </is>
       </c>
-      <c r="K8" s="1" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"158\nCalories\n\n\n2g \nFat\n\n\n34g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="inlineStr">
+    <row r="9">
+      <c r="A9" t="inlineStr">
         <is>
           <t>1699658408-8</t>
         </is>
       </c>
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D9" s="1" t="inlineStr">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_Ck0VXUlXcn7t3KAhjGGiqLQK5I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1099x1154:1101x1156):format(webp)/5782300-healthy-banana-chocolate-chip-oat-muffins-My-Hot-Southern-Mess-4x3-1-8ebe79ffdaac478793a5b7f79d916990.jpg"
@@ -596,59 +913,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E9" s="1" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230519/healthy-banana-chocolate-chip-oat-muffins/</t>
         </is>
       </c>
-      <c r="F9" s="1" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Healthy Banana Chocolate Chip Oat Muffins</t>
         </is>
       </c>
-      <c r="G9" s="1" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nAdditional Time:\n5 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H9" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups whole wheat flour\n\n\n1 cup rolled oats\n\n\n½ cup white sugar\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ cup semi-sweet chocolate chips\n\n\n2  large eggs\n\n\n½ cup unsweetened applesauce\n\n\n¼ cup skim milk\n\n\n1 cup mashed banana"}]</t>
-        </is>
-      </c>
-      <c r="I9" s="1" t="inlineStr">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups whole wheat flour\n\n\n1 cup rolled oats\n\n\n½ cup white sugar\n\n\n2 teaspoons baking powder\n\n\n1 teaspoon baking soda\n\n\n½ cup semi-sweet chocolate chips\n\n\n2  large eggs\n\n\n½ cup unsweetened applesauce\n\n\n¼ cup skim milk\n\n\n1 cup mashed banana'}]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease 12 muffin cups or line with paper liners."},{"recipe_directions":"Stir whole wheat flour, rolled oats, sugar, baking powder, baking soda, and chocolate chips together in a bowl. Make a well in the center."},{"recipe_directions":"Whisk eggs in a separate bowl until frothy; mix applesauce, skim milk, and banana into eggs. Pour wet ingredients into well made in flour mixture; stir just to moisten. Batter will be lumpy. Fill the prepared muffin cups about 3/4 full."},{"recipe_directions":"Bake in the preheated oven until a toothpick inserted into the center of several muffins comes out clean, 16 to 18 minutes. Cool in pan for 5 minutes before removing to finish cooling on wire racks."}]</t>
         </is>
       </c>
-      <c r="J9" s="1" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Whole Wheat Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K9" s="1" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n4g \nFat\n\n\n34g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="1" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
         <is>
           <t>1699658416-9</t>
         </is>
       </c>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D10" s="1" t="inlineStr">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4-uwcaKRn5Bn-RNOv5kP5Er184M=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1364776-92d4a14284224b409b2d56ad7c3fb6ea.jpg"
@@ -661,59 +974,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E10" s="1" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236005/carrot-chips/</t>
         </is>
       </c>
-      <c r="F10" s="1" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Carrot Chips</t>
         </is>
       </c>
-      <c r="G10" s="1" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n22 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H10" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  carrots, washed\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I10" s="1" t="inlineStr">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  carrots, washed\n\n\n2 teaspoons extra-virgin olive oil\n\n\n¼ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Put one rack on the highest level in the oven and another on the bottom."},{"recipe_directions":"Peel carrots into thin strips using a vegetable peeler; put into a large bowl. Drizzle olive oil over the carrot strips and toss to coat. Season with salt; toss again. Spread carrots onto 2 baking sheets in a single layer, preventing overlap."},{"recipe_directions":"Put one baking sheet on the top rack and the other on the bottom. Bake carrots in preheated oven for 6 minutes, switch racks, and continue baking until the carrots are crisp, about 6 minutes more. Cool chips until cool enough to handle before serving."}]</t>
         </is>
       </c>
-      <c r="J10" s="1" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K10" s="1" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"51\nCalories\n\n\n3g \nFat\n\n\n7g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>1699658423-10</t>
         </is>
       </c>
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D11" s="1" t="inlineStr">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/4bC2uGsx4ZHx24h_iEhLfcgU6O0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1964168-814a4896e09a4324a4c7a01cec04d3c4.jpg"
@@ -726,59 +1035,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E11" s="1" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/235256/great-chicken-taquitos/</t>
         </is>
       </c>
-      <c r="F11" s="1" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Great Chicken Taquitos</t>
         </is>
       </c>
-      <c r="G11" s="1" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6"}]</t>
         </is>
       </c>
-      <c r="H11" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup water\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n3 ½ cups vegetable oil (such as Crisco®), divided\n\n\n1 cup finely chopped tomatoes\n\n\n½ cup minced green onions\n\n\n6 tablespoons chicken broth\n\n\n2 teaspoons all-purpose flour\n\n\n1 teaspoon minced garlic\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon salt\n\n\n12 (6 inch) corn tortillas\n\n\n12  wooden picks\n\n\n1 cup shredded lettuce, or to taste\n\n\n¼ cup guacamole, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I11" s="1" t="inlineStr">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup water\n\n\n1 pound skinless, boneless chicken breast halves\n\n\n3 ½ cups vegetable oil (such as Crisco®), divided\n\n\n1 cup finely chopped tomatoes\n\n\n½ cup minced green onions\n\n\n6 tablespoons chicken broth\n\n\n2 teaspoons all-purpose flour\n\n\n1 teaspoon minced garlic\n\n\n½ teaspoon ground cumin\n\n\n½ teaspoon dried oregano\n\n\n½ teaspoon chili powder\n\n\n½ teaspoon salt\n\n\n12 (6 inch) corn tortillas\n\n\n12  wooden picks\n\n\n1 cup shredded lettuce, or to taste\n\n\n¼ cup guacamole, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Bring water to a simmer in a skillet over medium heat; add chicken. Cover the skillet and cook until chicken is no longer pink in the center, 20 to 25 minutes. An instant-read thermometer inserted into the center should read at least 165 degrees F (74 degrees C). Remove chicken from water and cool; shred with a fork. Discard water and dry the skillet with a paper towel."},{"recipe_directions":"Heat 1 tablespoon vegetable oil in the skillet over medium heat; cook and stir shredded chicken, tomatoes, green onions, chicken broth, flour, garlic, cumin, oregano, chili powder, and salt until heated through, 3 to 5 minutes. Set aside."},{"recipe_directions":"Heat remaining vegetable oil in a heavy 10-inch skillet over medium heat; carefully dip tortillas in hot oil to soften, about 1 minute. Remove tortillas with tongs and drain on paper towels, reserving oil in the skillet."},{"recipe_directions":"Heat reserved oil to 375 degrees F (190 degrees C)."},{"recipe_directions":"Spoon about 2 tablespoons chicken mixture down the center of each tortilla. Tightly roll each tortilla around the filling and secure with a wooden toothpick."},{"recipe_directions":"Working in batches, fry rolled tortillas in hot oil until golden brown, 3 to 5 minutes. Remove taquitos with a slotted spoon and drain on paper towels. Serve taquitos on a bed of shredded lettuce with guacamole on the side."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J11" s="1" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Wraps and Rolls"}]</t>
         </is>
       </c>
-      <c r="K11" s="1" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"331\nCalories\n\n\n17g \nFat\n\n\n27g \nCarbs\n\n\n19g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
         <is>
           <t>1699658430-11</t>
         </is>
       </c>
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D12" s="1" t="inlineStr">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0bsiATH4KCy3d_PGbabB9ffkxCc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1823x0:1825x2):format(webp)/5461089-a6078a87ebd74ff98eeba8acd02d8abc.jpg"
@@ -791,59 +1096,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E12" s="1" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254421/chewy-watermelon-rind-candy/</t>
         </is>
       </c>
-      <c r="F12" s="1" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Chewy Watermelon Rind Candy</t>
         </is>
       </c>
-      <c r="G12" s="1" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n 6 hrs\n\n\nTotal Time:\n 6 hrs 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H12" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  watermelon rind, peeled\n\n\n4 cups water\n\n\n4 cups white sugar\n\n\n½ cup spearmint leaves, coarsely chopped\n\n\n1 tablespoon dried sweet basil"}]</t>
-        </is>
-      </c>
-      <c r="I12" s="1" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  watermelon rind, peeled\n\n\n4 cups water\n\n\n4 cups white sugar\n\n\n½ cup spearmint leaves, coarsely chopped\n\n\n1 tablespoon dried sweet basil'}]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut watermelon rind into 2-inch long, 1-inch wide, and 1/2-inch thick pieces."},{"recipe_directions":"Combine water, sugar, spearmint, and basil in a large pot. Bring to a rolling boil. Strain out spearmint and basil. Add watermelon rind, making sure pieces are completely immersed. Cook until rind is soft, about 5 minutes."},{"recipe_directions":"Drain watermelon pieces and arrange in a single layer on dehydrator trays. Dry according to the manufacturer's instructions until pieces are candied, 6 to 8 hours."},{"recipe_directions":"Stevia, xylitol, dextrose, and other sugar substitutes may be used for this recipe."},{"recipe_directions":"If you are using dried mint, reduce the amount used to 2 tablespoons."},{"recipe_directions":"We have replaced the mint or basil with tea blends to give the syrup and final candy different flavor twists. Green tea with mint was delicious!"},{"recipe_directions":"Eat the candy immediately or store in the freezer for up to a year."},{"recipe_directions":"Nutrition data for this recipe includes the full amount of sugar. The actual amount of sugar consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J12" s="1" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Candy Recipes"}]</t>
         </is>
       </c>
-      <c r="K12" s="1" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"381\nCalories\n\n\n2g \nFat\n\n\n94g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
         <is>
           <t>1699658438-12</t>
         </is>
       </c>
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D13" s="1" t="inlineStr">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/EAhsfh9X9UwtRvVBvgYX1YzzdZ0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1274281-045e5253560d466fa3287b418505d98f.jpg"
@@ -856,59 +1157,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E13" s="1" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236255/crazy-bread/</t>
         </is>
       </c>
-      <c r="F13" s="1" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Crazy Bread</t>
         </is>
       </c>
-      <c r="G13" s="1" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n25 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n2 dozen breadsticks"}]</t>
         </is>
       </c>
-      <c r="H13" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons active dry yeast\n\n\n2 pinches white sugar\n\n\n½ cup warm water\n\n\n6 cups all-purpose flour, divided\n\n\n2 cups hot water\n\n\n3 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n1 tablespoon butter, melted\n\n\n½ cup grated Parmesan cheese, or to taste\n\n\n½ teaspoon garlic powder, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I13" s="1" t="inlineStr">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons active dry yeast\n\n\n2 pinches white sugar\n\n\n½ cup warm water\n\n\n6 cups all-purpose flour, divided\n\n\n2 cups hot water\n\n\n3 tablespoons white sugar\n\n\n2 teaspoons salt\n\n\n1 tablespoon butter, melted\n\n\n½ cup grated Parmesan cheese, or to taste\n\n\n½ teaspoon garlic powder, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C). Grease 2 baking sheets."},{"recipe_directions":"Dissolve yeast and 2 pinches white sugar in warm water in a bowl. Let stand until the yeast softens and begins to form a creamy foam, about 5 minutes."},{"recipe_directions":"Mix 4 cups flour, hot water, 3 tablespoons sugar, and salt together in a large mixing bowl; pour yeast mixture into the flour mixture and mix. Add remaining flour, one cup at a time, mixing well between additions. Continue to work the mixture until you have a dough; divide dough into 2 halves. Divide each half into 12 long breadsticks and arrange onto prepared baking sheets."},{"recipe_directions":"Pour melted butter and sprinkle Parmesan cheese and garlic powder over the breadsticks."},{"recipe_directions":"Bake in the preheated oven until golden brown, about 13 minutes."}]</t>
         </is>
       </c>
-      <c r="J13" s="1" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K13" s="1" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"269\nCalories\n\n\n3g \nFat\n\n\n52g \nCarbs\n\n\n9g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>1699658447-13</t>
         </is>
       </c>
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D14" s="1" t="inlineStr">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UKTB_3_-24kaYgJ0lj7ou6CHJxE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/855261-491b50c3646c4c8aaa7efa9724bd1429.jpg"
@@ -921,59 +1218,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E14" s="1" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222947/fried-yellow-squash/</t>
         </is>
       </c>
-      <c r="F14" s="1" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Fried Yellow Squash</t>
         </is>
       </c>
-      <c r="G14" s="1" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H14" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¾ cup self-rising cornbread mix (such as Martha White®)\n\n\n  salt and ground black pepper to taste\n\n\n2 medium yellow squash, cut into 1/8-inch slices\n\n\n¼ cup olive oil, or more as needed"}]</t>
-        </is>
-      </c>
-      <c r="I14" s="1" t="inlineStr">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¾ cup self-rising cornbread mix (such as Martha White®)\n\n\n  salt and ground black pepper to taste\n\n\n2 medium yellow squash, cut into 1/8-inch slices\n\n\n¼ cup olive oil, or more as needed'}]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cornbread mix in a 1-gallon resealable bag; season with salt and black pepper. Add squash, seal the bag, and shake until evenly coated. Remove squash from the bag and shake off any excess cornmeal."},{"recipe_directions":"Heat about 1/4 inch of olive oil in a large skillet over medium heat."},{"recipe_directions":"Working in batches, fry squash until the center is cooked and the edges are crisp, 2 to 3 minutes per side. Remove with a slotted spoon and drain on a paper towel-lined plate."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount will vary depending on cooking time and temperature, ingredient density, and the specific type of oil used. Amount of the breading mix consumed will vary."}]</t>
         </is>
       </c>
-      <c r="J14" s="1" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Squash"},{"recipe_tags":"Summer Squash"}]</t>
         </is>
       </c>
-      <c r="K14" s="1" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"130\nCalories\n\n\n4g \nFat\n\n\n21g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" t="inlineStr">
         <is>
           <t>1699658456-14</t>
         </is>
       </c>
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D15" s="1" t="inlineStr">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/10nVAXjco8t1RDgehd_8wATz8zA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/262864-418173833ee04aca839559ae822f7268.jpg"
@@ -986,59 +1279,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E15" s="1" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14137/fresh-california-salsa/</t>
         </is>
       </c>
-      <c r="F15" s="1" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Fresh California Salsa</t>
         </is>
       </c>
-      <c r="G15" s="1" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H15" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large tomatoes, diced\n\n\n½ large onion, minced\n\n\n3 cloves garlic, chopped\n\n\n⅔ cup chopped fresh cilantro\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons fresh lime juice\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I15" s="1" t="inlineStr">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large tomatoes, diced\n\n\n½ large onion, minced\n\n\n3 cloves garlic, chopped\n\n\n⅔ cup chopped fresh cilantro\n\n\n1  jalapeno pepper, seeded and minced\n\n\n2 tablespoons fresh lime juice\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a small mixing bowl, combine tomatoes, onion, garlic, cilantro, and lime juice. Add 2 teaspoons minced jalapeños; taste to see how hot it is, then add more if desired. Season with salt to taste. Enjoy!"}]</t>
         </is>
       </c>
-      <c r="J15" s="1" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K15" s="1" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"12\nCalories\n\n\n0g \nFat\n\n\n3g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>1699658465-15</t>
         </is>
       </c>
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D16" s="1" t="inlineStr">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mcf2mktJ7NH3WDale-AgdfkHXHs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3920137-b0efed95d0d3494fbd01b95d4fc089e5.jpg"
@@ -1051,59 +1340,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E16" s="1" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/229920/sweet-potato-hummus/</t>
         </is>
       </c>
-      <c r="F16" s="1" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Sweet Potato Hummus</t>
         </is>
       </c>
-      <c r="G16" s="1" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n20"}]</t>
         </is>
       </c>
-      <c r="H16" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3  sweet potatoes\n\n\n1 (15 ounce) can garbanzo beans, drained (reserve liquid) and rinsed\n\n\n2 tablespoons extra-virgin olive oil\n\n\n2 tablespoons tahini\n\n\n2 tablespoons lemon juice\n\n\n½ teaspoon lemon zest\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon ground white pepper\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I16" s="1" t="inlineStr">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3  sweet potatoes\n\n\n1 (15 ounce) can garbanzo beans, drained (reserve liquid) and rinsed\n\n\n2 tablespoons extra-virgin olive oil\n\n\n2 tablespoons tahini\n\n\n2 tablespoons lemon juice\n\n\n½ teaspoon lemon zest\n\n\n¼ teaspoon ground cumin\n\n\n¼ teaspoon ground coriander\n\n\n¼ teaspoon ground white pepper\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Poke holes all over sweet potatoes with a fork."},{"recipe_directions":"Roast sweet potatoes in the preheated oven until soft, about 45 minutes; let cool. Cut sweet potatoes in half lengthwise."},{"recipe_directions":"Combine garbanzo beans and olive oil in a blender and pulse several times to mash. Scoop flesh out of sweet potato peels and add to the blender; pulse to combine. Add tahini, lemon juice, lemon zest, cumin, coriander, white pepper, and sea salt to mixture; blend until smooth, adding reserved garbanzo bean liquid as needed to make a smooth, creamy hummus."}]</t>
         </is>
       </c>
-      <c r="J16" s="1" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Hummus Recipes"}]</t>
         </is>
       </c>
-      <c r="K16" s="1" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"75\nCalories\n\n\n2g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>1699658475-16</t>
         </is>
       </c>
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D17" s="1" t="inlineStr">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/c-e4Vek3b3bYnWrtCjoekz0wfoA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2410297-chef-johns-baba-ghanoush-Chef-John-1x1-1-07c52bce99a04451be474541182bdee0.jpg"
@@ -1117,59 +1402,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E17" s="1" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/244553/chef-johns-baba-ghanoush/</t>
         </is>
       </c>
-      <c r="F17" s="1" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Chef John's Baba Ghanoush</t>
         </is>
       </c>
-      <c r="G17" s="1" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 3 hrs 20 mins\n\n\nTotal Time:\n 3 hrs 55 mins\n\n\nServings:\n12 \n\n\nYield:\n6 cups"}]</t>
         </is>
       </c>
-      <c r="H17" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large Italian eggplants\n\n\n2 cloves crushed garlic\n\n\n2 teaspoons kosher salt, or to taste\n\n\n1  lemon, juiced, or more to taste\n\n\n3 tablespoons tahini, or more to taste\n\n\n3 tablespoons extra-virgin olive oil\n\n\n2 tablespoons plain Greek yogurt\n\n\n1 pinch cayenne pepper, or to taste\n\n\n1 leaf fresh mint, minced (Optional)\n\n\n2 tablespoons chopped fresh Italian parsley"}]</t>
-        </is>
-      </c>
-      <c r="I17" s="1" t="inlineStr">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large Italian eggplants\n\n\n2 cloves crushed garlic\n\n\n2 teaspoons kosher salt, or to taste\n\n\n1  lemon, juiced, or more to taste\n\n\n3 tablespoons tahini, or more to taste\n\n\n3 tablespoons extra-virgin olive oil\n\n\n2 tablespoons plain Greek yogurt\n\n\n1 pinch cayenne pepper, or to taste\n\n\n1 leaf fresh mint, minced (Optional)\n\n\n2 tablespoons chopped fresh Italian parsley'}]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium-high heat and lightly oil the grate. Prick the surface of the skin of eggplants several times with the tip of a knife."},{"recipe_directions":"Place eggplants directly on grill. Turn frequently with tongs while skin chars. Cook until eggplants have collapsed and are very soft, 25 to 30 minutes. Transfer to a bowl and cover tightly with aluminum foil and allow to cool, about 15 minutes."},{"recipe_directions":"When eggplants are cool enough to handle, split them in half and scrape flesh into a colander placed over a bowl. Drain 5 or 10 minutes."},{"recipe_directions":"Transfer eggplant to mixing bowl. Add crushed garlic and salt; mash until creamy but with a little texture, about 5 minutes. Whisk in lemon juice, tahini, olive oil, and cayenne pepper. Stir in yogurt."},{"recipe_directions":"Cover bowl with plastic wrap and refrigerate until completely chilled, 3 or 4 hours. Taste to adjust seasonings. Stir in mint and parsley."}]</t>
         </is>
       </c>
-      <c r="J17" s="1" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K17" s="1" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n6g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
         <is>
           <t>1699658483-17</t>
         </is>
       </c>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D18" s="1" t="inlineStr">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zS1RZDoKslhF8LtmEpvJzF7ZuvM=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/616268-4300678dedae4a1f9b2c11753f9a97a0.jpg"
@@ -1182,59 +1463,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E18" s="1" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/213490/toes-best-salsa/</t>
         </is>
       </c>
-      <c r="F18" s="1" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Toe's Best Salsa</t>
         </is>
       </c>
-      <c r="G18" s="1" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n16 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H18" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  white onion, chopped\n\n\n2 (15 ounce) cans tomato sauce\n\n\n2  jalapeno peppers\n\n\n1  serrano pepper\n\n\n4 cloves garlic\n\n\n1  lime, juiced\n\n\n½ teaspoon salt\n\n\n1 pinch ground black pepper\n\n\n½ bunch cilantro"}]</t>
-        </is>
-      </c>
-      <c r="I18" s="1" t="inlineStr">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  white onion, chopped\n\n\n2 (15 ounce) cans tomato sauce\n\n\n2  jalapeno peppers\n\n\n1  serrano pepper\n\n\n4 cloves garlic\n\n\n1  lime, juiced\n\n\n½ teaspoon salt\n\n\n1 pinch ground black pepper\n\n\n½ bunch cilantro'}]</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place the onion in a bowl, and set aside. In a blender, place tomato sauce, jalapeno peppers, serrano pepper, garlic, lime juice, salt, and pepper. Blend well. Place the cilantro into the blender, and pulse several times to chop the cilantro. Do not over blend. Pour the tomato sauce mixture into the bowl with the onion, stir well to combine, and refrigerate at least 1 hour to blend flavors before serving."},{"recipe_directions":"For a mild salsa, seed the peppers and scrape out all the interior veins before blending; for a hot salsa, leave the seeds and veins in."}]</t>
         </is>
       </c>
-      <c r="J18" s="1" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K18" s="1" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"18\nCalories\n\n\n0g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" t="inlineStr">
         <is>
           <t>1699658493-18</t>
         </is>
       </c>
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D19" s="1" t="inlineStr">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/p5mot7pXNPApvWFqd3B-zgJfr9Y=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(319x0:321x2):format(webp)/image-298-9ea0164f6701476d96dacf960f3e9aa9.jpg"
@@ -1248,59 +1525,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E19" s="1" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/254452/chef-johns-chocolate-energy-bars/</t>
         </is>
       </c>
-      <c r="F19" s="1" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Chef John's Chocolate Energy Bars</t>
         </is>
       </c>
-      <c r="G19" s="1" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 3 hrs\n\n\nServings:\n12 \n\n\nYield:\n12 bars"}]</t>
         </is>
       </c>
-      <c r="H19" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups pitted Medjool dates, roughly chopped\n\n\n2 cups raw cashews\n\n\n1 cup raw or roasted unsalted almonds\n\n\n¾ cup high-quality unsweetened cocoa powder (such as Guittard® Cocoa Rouge)\n\n\n2 tablespoons coconut oil, melted\n\n\n½ cup unsweetened shredded coconut\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon cold espresso, or more as needed (or water)\n\n\n½ teaspoon kosher salt\n\n\n½ pinch cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I19" s="1" t="inlineStr">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups pitted Medjool dates, roughly chopped\n\n\n2 cups raw cashews\n\n\n1 cup raw or roasted unsalted almonds\n\n\n¾ cup high-quality unsweetened cocoa powder (such as Guittard® Cocoa Rouge)\n\n\n2 tablespoons coconut oil, melted\n\n\n½ cup unsweetened shredded coconut\n\n\n2 teaspoons vanilla extract\n\n\n1 tablespoon cold espresso, or more as needed (or water)\n\n\n½ teaspoon kosher salt\n\n\n½ pinch cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place cashews, almonds, coconut, dates, cocoa, coconut oil, vanilla, cold coffee, cayenne and salt in the bowl of a food processor. Pulse on and off to start. Process about 1 minute; check to ensure mixture is sticky and moist enough to stick together. Add more coffee if needed. Continue to process until mixture becomes a chunky mass."},{"recipe_directions":"Line a baking pan with plastic wrap. Scoop mixture into pan. Press down with a spatula until mixture is even. Place a layer of plastic wrap on the surface and smooth again with your hands."},{"recipe_directions":"Refrigerate until cold and firm, 2 or 3 hours."},{"recipe_directions":"Remove from the pan and unwrap. Cut into bars of your preferred size. Store in a zip top back in the refrigerator."}]</t>
         </is>
       </c>
-      <c r="J19" s="1" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K19" s="1" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"343\nCalories\n\n\n22g \nFat\n\n\n36g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>1699658506-19</t>
         </is>
       </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D20" s="1" t="inlineStr">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/U6hHB16YEDMatYyHC3HXRKEt1Vk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/944223-00be7d20f2ac4956af76d07490861a3c.jpg"
@@ -1313,59 +1586,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E20" s="1" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/230404/rutabaga-oven-fries/</t>
         </is>
       </c>
-      <c r="F20" s="1" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Rutabaga Oven Fries</t>
         </is>
       </c>
-      <c r="G20" s="1" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n30 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H20" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  rutabaga, peeled and cut into spears\n\n\n1 teaspoon olive oil\n\n\n4 sprigs fresh rosemary, minced\n\n\n3 cloves garlic, minced\n\n\n1 pinch salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I20" s="1" t="inlineStr">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  rutabaga, peeled and cut into spears\n\n\n1 teaspoon olive oil\n\n\n4 sprigs fresh rosemary, minced\n\n\n3 cloves garlic, minced\n\n\n1 pinch salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Combine rutabaga spears with oil, minced rosemary, garlic, and salt. Toss until evenly coated."},{"recipe_directions":"Lay rutabaga spears onto a baking sheet, leaving space between for even crisping. Bake until rutabaga fries are cooked through and crisped on the outside, about 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J20" s="1" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K20" s="1" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"50\nCalories\n\n\n1g \nFat\n\n\n9g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" t="inlineStr">
         <is>
           <t>1699658514-20</t>
         </is>
       </c>
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D21" s="1" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/zMgpRvfAdCvJiW3h9sCWpmc8Tqs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1223x0:1225x2):format(webp)/4542583-b8250d0376524a67899361ab07352f20.jpg"
@@ -1378,59 +1647,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E21" s="1" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/256723/baked-bananas/</t>
         </is>
       </c>
-      <c r="F21" s="1" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Baked Bananas</t>
         </is>
       </c>
-      <c r="G21" s="1" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H21" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg"}]</t>
-        </is>
-      </c>
-      <c r="I21" s="1" t="inlineStr">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n4  firm bananas, peeled and halved lengthwise\n\n\n¼ cup maple syrup (Optional)\n\n\n1 tablespoon ground cinnamon\n\n\n1 (1 inch) piece fresh ginger, grated\n\n\n1 ½ teaspoons ground nutmeg'}]</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Spray a baking dish with cooking spray."},{"recipe_directions":"Arrange banana halves in the prepared baking dish. Drizzle maple syrup over bananas and top with cinnamon, ginger, and nutmeg. Cover dish with aluminum foil."},{"recipe_directions":"Bake in the preheated oven until heated through, 10 to 15 minutes."},{"recipe_directions":"Substitute 1/8 teaspoon dried ginger for the fresh ginger, if desired."},{"recipe_directions":"Mash or puree cooked bananas, if desired."}]</t>
         </is>
       </c>
-      <c r="J21" s="1" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Desserts"},{"recipe_tags":"Fruit Desserts"},{"recipe_tags":"Banana Dessert Recipes"}]</t>
         </is>
       </c>
-      <c r="K21" s="1" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"168\nCalories\n\n\n1g \nFat\n\n\n42g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" t="inlineStr">
         <is>
           <t>1699658524-21</t>
         </is>
       </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/-N01hARIr71kkA7yoXuQY_gg7Fc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/303776-9ff1f3275d774db9b6d2ebf3d690dc34.jpg"
@@ -1443,59 +1708,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E22" s="1" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/38521/watermelon-fruit-bowl/</t>
         </is>
       </c>
-      <c r="F22" s="1" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Watermelon Fruit Bowl</t>
         </is>
       </c>
-      <c r="G22" s="1" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n5 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n20 \n\n\nYield:\n20 servings"}]</t>
         </is>
       </c>
-      <c r="H22" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1  large watermelon\n\n\n1  cantaloupe, halved and seeded\n\n\n1  honeydew melon, halved and seeded\n\n\n2 (15 ounce) cans mandarin oranges, drained\n\n\n2 (20 ounce) cans pineapple chunks, drained\n\n\n2 cups halved fresh strawberries\n\n\n2 cups seedless grapes \n\n\n½ cup water\n\n\n¼ cup white sugar\n\n\n2 tablespoons grated lemon zest"}]</t>
-        </is>
-      </c>
-      <c r="I22" s="1" t="inlineStr">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1  large watermelon\n\n\n1  cantaloupe, halved and seeded\n\n\n1  honeydew melon, halved and seeded\n\n\n2 (15 ounce) cans mandarin oranges, drained\n\n\n2 (20 ounce) cans pineapple chunks, drained\n\n\n2 cups halved fresh strawberries\n\n\n2 cups seedless grapes \n\n\n½ cup water\n\n\n¼ cup white sugar\n\n\n2 tablespoons grated lemon zest'}]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"With a large, sharp knife, remove the top 1/4 section of the watermelon. With a melon baller, scoop flesh from inside of watermelon, removing as many seeds as possible. Leave 1/2 inch of flesh inside the shell of the watermelon. Scoop cantaloupe and honeydew in the same manner, removing as much flesh as possible, and discarding the rinds. Refrigerate fruits separately until ready to assemble."},{"recipe_directions":"In a small saucepan over medium-high heat, bring water and sugar to a boil. Remove from heat, and continue stirring until sugar has completely dissolved. Add lemon zest, and set aside to cool."},{"recipe_directions":"To serve, place watermelon balls, cantaloupe, honeydew, oranges, pineapple, strawberries, and grapes, in a large mixing bowl. Pour syrup over, and toss thoroughly. Transfer mixture to watermelon bowl, and serve. Set aside any fruit mixture that will not fit. There will be enough fruit to refill the bowl."}]</t>
         </is>
       </c>
-      <c r="J22" s="1" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Fruit"}]</t>
         </is>
       </c>
-      <c r="K22" s="1" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"179\nCalories\n\n\n1g \nFat\n\n\n45g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" t="inlineStr">
         <is>
           <t>1699658532-22</t>
         </is>
       </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/MkPRjrMm9kXUY-BhEIK-uvYtW_w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/20929-rellenitos-de-platano-JenInCalifornia-4x3-1-f0a0cb9b19fb43b8bb45f260fb0b365c.jpg"
@@ -1509,59 +1770,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E23" s="1" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/27159/rellenitos-de-platano/</t>
         </is>
       </c>
-      <c r="F23" s="1" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Rellenitos de Platano</t>
         </is>
       </c>
-      <c r="G23" s="1" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 30 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H23" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6  plantains, peeled and broken into chunks\n\n\n1 (16 ounce) can refried black beans\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 quart oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I23" s="1" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6  plantains, peeled and broken into chunks\n\n\n1 (16 ounce) can refried black beans\n\n\n1 tablespoon white sugar\n\n\n1 teaspoon salt\n\n\n1 quart oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place plantains in a large pot; cover with water. Bring to a boil, then reduce heat and simmer until tender, about 15 minutes. Drain and mash."},{"recipe_directions":"Heat refried beans in a small saucepan over low heat. Stir in sugar and salt. Remove from heat."},{"recipe_directions":"Form a palm-sized amount of mashed plantains into a ball; flatten and place about a teaspoon of bean mixture in the middle; then mold the sides of plantain around beans, making an egg-shaped ball."},{"recipe_directions":"Heat oil in a deep fryer or large skillet to 375 degrees F (190 degrees C), or until a small amount of batter sizzles and browns in oil."},{"recipe_directions":"Fry rellenitos in hot oil until browned. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J23" s="1" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K23" s="1" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"207\nCalories\n\n\n8g \nFat\n\n\n35g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="1" t="inlineStr">
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>1699658539-23</t>
         </is>
       </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/xifnq1cEAAP6xS2aQ5Z7fo3tCt0=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3445572-a3599ce9e61246c6b84267f70980a56f.jpg"
@@ -1574,59 +1831,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E24" s="1" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/232106/cajun-baked-french-fries/</t>
         </is>
       </c>
-      <c r="F24" s="1" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Cajun Baked French Fries</t>
         </is>
       </c>
-      <c r="G24" s="1" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n 1 hr\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H24" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"¼ cup olive oil\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon sea salt\n\n\n6 large baking potatoes, sliced into thin wedges"}]</t>
-        </is>
-      </c>
-      <c r="I24" s="1" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '¼ cup olive oil\n\n\n1 teaspoon garlic powder\n\n\n1 teaspoon onion powder\n\n\n1 teaspoon chili powder\n\n\n1 teaspoon Cajun seasoning\n\n\n1 teaspoon sea salt\n\n\n6 large baking potatoes, sliced into thin wedges'}]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Mix olive oil, garlic powder, onion powder, chili powder, Cajun seasoning, and sea salt in a large resealable bag. Add potatoes and toss to evenly coat with seasoned oil. Spread coated potatoes in 1 layer onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven for 35 minutes. Stir potatoes with a spatula and continue cooking until crisp, about 10 more minutes."}]</t>
         </is>
       </c>
-      <c r="J24" s="1" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"},{"recipe_tags":"Baked French Fries"}]</t>
         </is>
       </c>
-      <c r="K24" s="1" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"369\nCalories\n\n\n9g \nFat\n\n\n66g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>1699658548-24</t>
         </is>
       </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/P0gOs527SPb-nKheT98xbr0PF0I=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2822600-c1c25ba054624a73a05d9031fdec60db.jpg"
@@ -1639,59 +1892,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E25" s="1" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24623/potato-logs/</t>
         </is>
       </c>
-      <c r="F25" s="1" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Potato Logs</t>
         </is>
       </c>
-      <c r="G25" s="1" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n8 \n\n\nYield:\n8 servings"}]</t>
         </is>
       </c>
-      <c r="H25" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 quarts oil for deep frying\n\n\n4 large potatoes, peeled and chopped\n\n\n1 pinch Italian-style seasoning\n\n\n1  egg yolk\n\n\n1 cup all-purpose flour\n\n\n1  egg white\n\n\n1 cup dry bread crumbs"}]</t>
-        </is>
-      </c>
-      <c r="I25" s="1" t="inlineStr">
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 quarts oil for deep frying\n\n\n4 large potatoes, peeled and chopped\n\n\n1 pinch Italian-style seasoning\n\n\n1  egg yolk\n\n\n1 cup all-purpose flour\n\n\n1  egg white\n\n\n1 cup dry bread crumbs'}]</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat oil in deep-fryer to 375 degrees F (190 degrees C)."},{"recipe_directions":"Bring a large saucepan of lightly salted water to a boil. Place potatoes in the water and cook until tender but still firm, about 15 minutes. Drain and mash."},{"recipe_directions":"Mix Italian-style seasoning and egg yolk into the mashed potatoes. Allow potato mixture to cool approximately 10 minutes, or until it may be safely handled."},{"recipe_directions":"Place flour, egg white and dry bread crumbs in three separate small bowls. Roll potato mixture into 1 inch logs or balls. Cover in flour, dip in egg white and coat with bread crumbs."},{"recipe_directions":"Carefully lower small batches of the coated potatoes into the deep fryer. Fry until golden brown, about 4 minutes."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J25" s="1" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Vegetable"}]</t>
         </is>
       </c>
-      <c r="K25" s="1" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"456\nCalories\n\n\n24g \nFat\n\n\n54g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>1699658557-25</t>
         </is>
       </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/VixF2UCheFqUemh1As2BS8GuI84=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2490797-jalapeno-salsa-DIZ-4x3-1-c51dfcb60e6a45fbaceca711ce9f17f5.jpg"
@@ -1705,59 +1954,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E26" s="1" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/218317/jalapeno-salsa/</t>
         </is>
       </c>
-      <c r="F26" s="1" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Jalapeno Salsa</t>
         </is>
       </c>
-      <c r="G26" s="1" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n27 mins\n\n\nServings:\n25 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H26" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10  fresh jalapeno peppers\n\n\n2  tomatoes\n\n\n1  white onion, quartered\n\n\n¼ cup chopped fresh cilantro, or more to taste\n\n\n2 cloves garlic, smashed\n\n\n1  lime, juiced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I26" s="1" t="inlineStr">
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10  fresh jalapeno peppers\n\n\n2  tomatoes\n\n\n1  white onion, quartered\n\n\n¼ cup chopped fresh cilantro, or more to taste\n\n\n2 cloves garlic, smashed\n\n\n1  lime, juiced\n\n\n1 teaspoon salt\n\n\n1 teaspoon ground black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place jalapenos in a saucepan with enough water to cover. Bring to a boil. Simmer until jalapenos soften and begin to lose their shine, about 10 to 12 minutes. Remove the jalapenos with a slotted spoon, chop off the stem, and place them in a blender. Add the tomatoes and boil for 2 to 3 minutes to loosen the skin. Peel the skin from the tomatoes and add tomatoes to the blender."},{"recipe_directions":"Place the onion, cilantro, garlic, lime juice, salt, and black pepper in the blender with the jalapenos and tomatoes. Blend to desired consistency."}]</t>
         </is>
       </c>
-      <c r="J26" s="1" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K26" s="1" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"7\nCalories\n\n\n0g \nFat\n\n\n2g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="27">
+      <c r="A27" t="inlineStr">
         <is>
           <t>1699658564-26</t>
         </is>
       </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qSojQkbAXhFNrkgFH21OTdoxI6g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1104335-34e4a76f62bb48c198dc3a6e6f739cb5.jpg"
@@ -1770,59 +2015,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E27" s="1" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236557/salt-and-vinegar-potato-chips/</t>
         </is>
       </c>
-      <c r="F27" s="1" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Salt and Vinegar Potato Chips</t>
         </is>
       </c>
-      <c r="G27" s="1" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr 30 mins\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H27" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  potatoes, thinly sliced \n\n\n  cold water to cover\n\n\n3 cups white vinegar\n\n\n1 cup cold water\n\n\n2 cups vegetable oil for frying\n\n\n  salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I27" s="1" t="inlineStr">
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  potatoes, thinly sliced \n\n\n  cold water to cover\n\n\n3 cups white vinegar\n\n\n1 cup cold water\n\n\n2 cups vegetable oil for frying\n\n\n  salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put potato slices in a large bowl. Pour enough cold water over the potatoes to cover completely. Soak potatoes, gently agitating every 10 minutes, for 30 minutes; drain."},{"recipe_directions":"Spread potatoes slices onto paper towel; pat dry with more paper towels."},{"recipe_directions":"Mix vinegar and 1 cup cold water in the large bowl; add potatoes. Cover bowl with plastic wrap and refrigerate for 30 minutes, stir gently, and continue chilling at least 30 minutes more."},{"recipe_directions":"Heat oil in a deep-fryer or large saucepan to 375 degrees F (190 degrees C)."},{"recipe_directions":"Working in batches, use a slotted spoon to remove potato slices from vinegar mixture and gently add to the hot oil. Fry potatoes until golden brown, 5 to 7 minutes per batch. Remove chips to a bowl lined with paper towel to drain."},{"recipe_directions":"Use the paper towel to lift chips from the bowl and put them into a separate bowl; season with salt. Spread the salted chips onto paper towel to further dry and cool completely."},{"recipe_directions":"The nutrition data for this recipe includes the full amount of vinegar. The actual amount consumed will vary."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. Amount will vary depending on cooking time and temperature, ingredient density, and specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J27" s="1" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"},{"recipe_tags":"Potato Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K27" s="1" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"177\nCalories\n\n\n8g \nFat\n\n\n25g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>1699658571-27</t>
         </is>
       </c>
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C28" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr">
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZmoHPt9Ym6l-YNVYPNvnf_4vTk4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1364063-8f54415666324e659ad13fdb2fabd1e9.jpg"
@@ -1835,59 +2076,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E28" s="1" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/139917/joses-shrimp-ceviche/</t>
         </is>
       </c>
-      <c r="F28" s="1" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Jose's Shrimp Ceviche</t>
         </is>
       </c>
-      <c r="G28" s="1" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n45 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n20 \n\n\nYield:\n7 cups"}]</t>
         </is>
       </c>
-      <c r="H28" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pound peeled and deveined medium shrimp\n\n\n1 cup fresh lime juice\n\n\n10  plum tomatoes, diced\n\n\n1 large yellow onion, diced\n\n\n1  jalapeno pepper, seeded and minced, or to taste\n\n\n2  avocados, diced (Optional)\n\n\n2  ribs celery, diced (Optional)\n\n\n  chopped fresh cilantro to taste\n\n\n  salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I28" s="1" t="inlineStr">
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pound peeled and deveined medium shrimp\n\n\n1 cup fresh lime juice\n\n\n10  plum tomatoes, diced\n\n\n1 large yellow onion, diced\n\n\n1  jalapeno pepper, seeded and minced, or to taste\n\n\n2  avocados, diced (Optional)\n\n\n2  ribs celery, diced (Optional)\n\n\n  chopped fresh cilantro to taste\n\n\n  salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place shrimp in a glass bowl and cover with lime juice to marinate (or 'cook') for about 10 minutes, or until they turn pink and opaque. Meanwhile, place the plum tomatoes, onion and jalapeno (and avocados and celery, if using) in a large, non-reactive (stainless steel, glass or plastic) bowl."},{"recipe_directions":"Remove shrimp from lime juice, reserving juice. Dice shrimp and add to the bowl of vegetables. Pour in the remaining lime juice marinade. Add cilantro and salt and pepper to taste. Toss gently to mix."}]</t>
         </is>
       </c>
-      <c r="J28" s="1" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Shrimp Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K28" s="1" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"73\nCalories\n\n\n4g \nFat\n\n\n6g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" t="inlineStr">
         <is>
           <t>1699658578-28</t>
         </is>
       </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C29" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D29" s="1" t="inlineStr">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SnDYTo4JqU1XDkMTqBjQoKzkB5Q=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(373x467:375x469):format(webp)/1060959-no-cook-applesauce-ReneePaj-4x3-1-8622d012073f4a738b7209a3e8e558d8.jpg"
@@ -1901,59 +2138,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E29" s="1" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223485/no-cook-applesauce/</t>
         </is>
       </c>
-      <c r="F29" s="1" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>No Cook Applesauce</t>
         </is>
       </c>
-      <c r="G29" s="1" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nTotal Time:\n15 mins\n\n\nServings:\n16 \n\n\nYield:\n16 servings"}]</t>
         </is>
       </c>
-      <c r="H29" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"12  apples - peeled, cored, and chopped\n\n\n1 cup brown sugar\n\n\n1 cup water\n\n\n1 ½ tablespoons lemon juice\n\n\n1 teaspoon ground cinnamon"}]</t>
-        </is>
-      </c>
-      <c r="I29" s="1" t="inlineStr">
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '12  apples - peeled, cored, and chopped\n\n\n1 cup brown sugar\n\n\n1 cup water\n\n\n1 ½ tablespoons lemon juice\n\n\n1 teaspoon ground cinnamon'}]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Blend apples, brown sugar, water, lemon juice, and cinnamon in a blender until smooth."}]</t>
         </is>
       </c>
-      <c r="J29" s="1" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K29" s="1" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n0g \nFat\n\n\n28g \nCarbs\n\n\n0g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" t="inlineStr">
         <is>
           <t>1699658585-29</t>
         </is>
       </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ymOcpV1NbQdsbwN3aFrUdS55uAg=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1259x1079:1261x1081):format(webp)/5478668-okra-patties-Pamplemousse-4x3-1-07e739a157454f1683b2fe9f94556c95.jpg"
@@ -1967,59 +2200,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E30" s="1" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/60515/okra-patties/</t>
         </is>
       </c>
-      <c r="F30" s="1" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Okra Patties</t>
         </is>
       </c>
-      <c r="G30" s="1" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H30" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups vegetable oil for frying\n\n\n1 pound okra, finely chopped\n\n\n1 cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n½ cup water\n\n\n1  egg\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup cornmeal"}]</t>
-        </is>
-      </c>
-      <c r="I30" s="1" t="inlineStr">
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups vegetable oil for frying\n\n\n1 pound okra, finely chopped\n\n\n1 cup finely chopped onion\n\n\n1 teaspoon salt\n\n\n¼ teaspoon pepper\n\n\n½ cup water\n\n\n1  egg\n\n\n½ cup all-purpose flour\n\n\n1 teaspoon baking powder\n\n\n½ cup cornmeal'}]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat 1 inch of oil in a large skillet to 375 degrees F (190 degrees C)."},{"recipe_directions":"In a large bowl, mix together the okra, onion, salt, pepper, water and egg. Combine the flour, baking powder and cornmeal; and stir that into the okra mixture."},{"recipe_directions":"Carefully drop spoonfuls of the okra batter into the hot oil, and fry on each side until golden, about 2 minutes per side. Remove with a slotted spoon, and drain on paper towels."}]</t>
         </is>
       </c>
-      <c r="J30" s="1" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K30" s="1" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"224\nCalories\n\n\n12g \nFat\n\n\n25g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>1699658593-30</t>
         </is>
       </c>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C31" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/C0HVyl2FGBBrMVBjZ9WtwGCWMhA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2024472-89965378884c46cba6401a0eba236500.jpg"
@@ -2032,59 +2261,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E31" s="1" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/241128/kale-chips-in-the-microwave/</t>
         </is>
       </c>
-      <c r="F31" s="1" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Kale Chips in the Microwave</t>
         </is>
       </c>
-      <c r="G31" s="1" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n10 mins\n\n\nTotal Time:\n20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H31" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch flat-leaf kale - ribs trimmed away and discarded and leaves cut into 2-inch pieces\n\n\n1 tablespoon olive oil, or to taste\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I31" s="1" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch flat-leaf kale - ribs trimmed away and discarded and leaves cut into 2-inch pieces\n\n\n1 tablespoon olive oil, or to taste\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Arrange kale pieces on microwave-safe plates so they do not overlap. Drizzle olive oil over the kale pieces; season with sea salt."},{"recipe_directions":"Cook each plateful of kale in microwave oven until crispy, 2 to 2 1/2 minutes per batch."}]</t>
         </is>
       </c>
-      <c r="J31" s="1" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Snack Chip Recipes"},{"recipe_tags":"Kale Chip Recipes"}]</t>
         </is>
       </c>
-      <c r="K31" s="1" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"86\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" t="inlineStr">
         <is>
           <t>1699658600-31</t>
         </is>
       </c>
-      <c r="B32" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C32" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D32" s="1" t="inlineStr">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ZrT4TUgZRbRIjjtGkYAO_9RIvvQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2174193-b18a0bef7b514ab8bae56c93a5c73949.jpg"
@@ -2097,59 +2322,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E32" s="1" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/240250/cauliflower-popcorn/</t>
         </is>
       </c>
-      <c r="F32" s="1" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Cauliflower Popcorn</t>
         </is>
       </c>
-      <c r="G32" s="1" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H32" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 large head cauliflower, broken into small florets\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon garlic salt"}]</t>
-        </is>
-      </c>
-      <c r="I32" s="1" t="inlineStr">
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 large head cauliflower, broken into small florets\n\n\n1 tablespoon olive oil\n\n\n½ teaspoon garlic salt'}]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Whisk olive oil and garlic salt together in a large bowl; add cauliflower and toss to coat completely. Spread cauliflower out onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden and tender, 15 to 18 minutes."}]</t>
         </is>
       </c>
-      <c r="J32" s="1" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Cauliflower"}]</t>
         </is>
       </c>
-      <c r="K32" s="1" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"83\nCalories\n\n\n4g \nFat\n\n\n11g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>1699658606-32</t>
         </is>
       </c>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D33" s="1" t="inlineStr">
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/CfUpkFwkZqjixvAP63lx6GfaEzk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/225226-e101597978e140c292e4a01e83bad47d.jpg"
@@ -2162,59 +2383,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E33" s="1" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/23953/ants-on-a-log/</t>
         </is>
       </c>
-      <c r="F33" s="1" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Ants on a Log</t>
         </is>
       </c>
-      <c r="G33" s="1" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n10 \n\n\nYield:\n10 logs"}]</t>
         </is>
       </c>
-      <c r="H33" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"5 stalks celery\n\n\n½ cup peanut butter\n\n\n¼ cup raisins"}]</t>
-        </is>
-      </c>
-      <c r="I33" s="1" t="inlineStr">
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '5 stalks celery\n\n\n½ cup peanut butter\n\n\n¼ cup raisins'}]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Cut the celery stalks in half. Spread with peanut butter. Sprinkle with raisins."}]</t>
         </is>
       </c>
-      <c r="J33" s="1" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Quick and Easy"}]</t>
         </is>
       </c>
-      <c r="K33" s="1" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"91\nCalories\n\n\n7g \nFat\n\n\n6g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" t="inlineStr">
         <is>
           <t>1699658613-33</t>
         </is>
       </c>
-      <c r="B34" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D34" s="1" t="inlineStr">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ot0z2ng-KvwdSYkPZNNxj3Faf60=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/588854-274b47807d6a4f09996f6c9a09c77293.jpg"
@@ -2227,59 +2444,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E34" s="1" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20797/extra-easy-hummus/</t>
         </is>
       </c>
-      <c r="F34" s="1" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Extra Easy Hummus</t>
         </is>
       </c>
-      <c r="G34" s="1" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nTotal Time:\n5 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H34" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I34" s="1" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can garbanzo beans, drained, liquid reserved\n\n\n1 clove garlic, crushed\n\n\n2 teaspoons ground cumin\n\n\n½ teaspoon salt\n\n\n1 tablespoon olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a blender or food processor combine garbanzo beans, garlic, cumin, salt and olive oil. Blend on low speed, gradually adding reserved bean liquid, until desired consistency is achieved."}]</t>
         </is>
       </c>
-      <c r="J34" s="1" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Quick and Easy"}]</t>
         </is>
       </c>
-      <c r="K34" s="1" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"118\nCalories\n\n\n4g \nFat\n\n\n17g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" t="inlineStr">
         <is>
           <t>1699658619-34</t>
         </is>
       </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mXpvsLIXoP-SjAq-JJ8VAcGFB4c=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1004999-6d4280ced6e84ec6be9b2c634f1c9664.jpg"
@@ -2292,59 +2505,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E35" s="1" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/228337/cheesy-kale-chips/</t>
         </is>
       </c>
-      <c r="F35" s="1" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Cheesy Kale Chips</t>
         </is>
       </c>
-      <c r="G35" s="1" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H35" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons extra virgin olive oil\n\n\n1 bunch curly kale, torn\n\n\n½ cup nutritional yeast\n\n\n⅓ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I35" s="1" t="inlineStr">
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons extra virgin olive oil\n\n\n1 bunch curly kale, torn\n\n\n½ cup nutritional yeast\n\n\n⅓ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 200 degrees F (95 degrees C)."},{"recipe_directions":"Drizzle olive oil over the kale in a large bowl and sprinkle with the nutritional yeast and salt. Stir with your hands to coat kale."},{"recipe_directions":"Spread kale onto baking sheets."},{"recipe_directions":"Bake in preheated oven until kale begins to get slightly crisp; rotate racks and flip the chips, and continue baking until completely crisp, 45 to 60 minutes total. Make sure to keep an eye on them to make sure they don't burn; if you notice certain chips ready much sooner than others, take them out."}]</t>
         </is>
       </c>
-      <c r="J35" s="1" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Greens"}]</t>
         </is>
       </c>
-      <c r="K35" s="1" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"111\nCalories\n\n\n6g \nFat\n\n\n11g \nCarbs\n\n\n8g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" t="inlineStr">
         <is>
           <t>1699658627-35</t>
         </is>
       </c>
-      <c r="B36" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C36" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D36" s="1" t="inlineStr">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/NxJUgp4F7QERFpIxMsWBq2hXWzY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7014643-kale-chips-Gladys78-4x3-1-71d57177bea24e22b2387f13923029e4.jpg"
@@ -2358,59 +2567,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E36" s="1" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214784/kale-chips/</t>
         </is>
       </c>
-      <c r="F36" s="1" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Kale Chips</t>
         </is>
       </c>
-      <c r="G36" s="1" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n2"}]</t>
         </is>
       </c>
-      <c r="H36" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 bunch kale\n\n\n1 tablespoon extra-virgin olive oil, divided\n\n\n1 tablespoon sherry vinegar\n\n\n1 pinch sea salt, to taste"}]</t>
-        </is>
-      </c>
-      <c r="I36" s="1" t="inlineStr">
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 bunch kale\n\n\n1 tablespoon extra-virgin olive oil, divided\n\n\n1 tablespoon sherry vinegar\n\n\n1 pinch sea salt, to taste'}]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 300 degrees F (150 degrees C)."},{"recipe_directions":"Cut away inner ribs from each kale leaf and discard; tear leaves into pieces of uniform size, about the size of a small potato chip. Wash torn kale pieces and spin dry in a salad spinner or dry with paper towels until very dry."},{"recipe_directions":"Place kale pieces into a large resealable bag. Add about 1/2 of the olive oil; squeeze out air and seal, then massage the bag so oil gets distributed evenly on kale pieces. Add remaining oil and massage the bag more, until all kale pieces are evenly coated with oil. Sprinkle vinegar over the kale leaves, reseal the bag and shake well. Spread the leaves evenly onto a baking sheet."},{"recipe_directions":"Bake in the preheated oven until mostly crisp, about 35 minutes. Season with salt and serve immediately."}]</t>
         </is>
       </c>
-      <c r="J36" s="1" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K36" s="1" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"174\nCalories\n\n\n8g \nFat\n\n\n23g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" t="inlineStr">
         <is>
           <t>1699658634-36</t>
         </is>
       </c>
-      <c r="B37" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C37" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D37" s="1" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/H713YGHa_OivkkyC7aCtkl2-yDs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/5782007-336a1b3c27ff468193ebd2b88c32f14b.jpg"
@@ -2423,59 +2628,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E37" s="1" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/222082/healthier-banana-banana-bread/</t>
         </is>
       </c>
-      <c r="F37" s="1" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Healthier Banana Banana Bread</t>
         </is>
       </c>
-      <c r="G37" s="1" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n 1 hr 5 mins\n\n\nTotal Time:\n 1 hr 20 mins\n\n\nServings:\n12 \n\n\nYield:\n1 9x5-inch loaf"}]</t>
         </is>
       </c>
-      <c r="H37" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n⅛ cup nonfat plain yogurt\n\n\n¾ cup brown sugar\n\n\n2  eggs, beaten\n\n\n2 ⅓ cups mashed overripe bananas"}]</t>
-        </is>
-      </c>
-      <c r="I37" s="1" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1 teaspoon baking soda\n\n\n¼ teaspoon salt\n\n\n¼ cup butter\n\n\n⅛ cup nonfat plain yogurt\n\n\n¾ cup brown sugar\n\n\n2  eggs, beaten\n\n\n2 ⅓ cups mashed overripe bananas'}]</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 350 degrees F (175 degrees C). Lightly grease a 9x5-inch loaf pan."},{"recipe_directions":"Combine flour, baking soda, and salt in a large bowl. Beat butter, yogurt, and brown sugar with an electric mixer in a large bowl until light and fluffy. The mixture should be noticeably lighter in color. Add room-temperature eggs one at a time, allowing each egg to blend into butter mixture before adding the next. Stir in mashed bananas until well blended. Pour banana mixture to flour mixture; stir just to moisten. Transfer batter into prepared loaf pan."},{"recipe_directions":"Bake in preheated oven until a toothpick inserted into center of loaf comes out clean, 60 to 65 minutes. Let bread cool in pan for 10 minutes, then turn out onto wire rack to cool completely."},{"recipe_directions":"This recipe is the healthier version of Banana Banana Bread."}]</t>
         </is>
       </c>
-      <c r="J37" s="1" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Fruit Bread Recipes"},{"recipe_tags":"Banana Bread"}]</t>
         </is>
       </c>
-      <c r="K37" s="1" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"196\nCalories\n\n\n5g \nFat\n\n\n35g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" t="inlineStr">
         <is>
           <t>1699658643-37</t>
         </is>
       </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C38" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D38" s="1" t="inlineStr">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/BCIA88ce78nI9U6M9FCsNtWMvPU=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3341799-cajun-potato-wedges-Anika-Brooks-4x3-1-e04b36426b074b56b68450a6c5cc94e4.jpg"
@@ -2489,59 +2690,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E38" s="1" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223408/cajun-potato-wedges/</t>
         </is>
       </c>
-      <c r="F38" s="1" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Cajun Potato Wedges</t>
         </is>
       </c>
-      <c r="G38" s="1" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n45 mins\n\n\nTotal Time:\n55 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H38" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4  baking potatoes\n\n\n3 tablespoons olive oil\n\n\n1 teaspoon minced fresh garlic\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ teaspoons onion powder\n\n\n½ teaspoon paprika"}]</t>
-        </is>
-      </c>
-      <c r="I38" s="1" t="inlineStr">
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4  baking potatoes\n\n\n3 tablespoons olive oil\n\n\n1 teaspoon minced fresh garlic\n\n\n¼ teaspoon salt\n\n\n¼ teaspoon ground black pepper\n\n\n1 ½ teaspoons onion powder\n\n\n½ teaspoon paprika'}]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 425 degrees F (220 degrees C). Grease a baking sheet."},{"recipe_directions":"Cut each potato into 12 wedges; place in a large bowl. Toss potatoes with olive oil, garlic, salt, pepper, onion powder, and paprika. Arrange in a single layer on prepared baking sheet."},{"recipe_directions":"Bake in preheated oven for 20 minutes. Turn potatoes over and continue baking until golden and crisp, 25 to 30 minutes longer."}]</t>
         </is>
       </c>
-      <c r="J38" s="1" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Potato"}]</t>
         </is>
       </c>
-      <c r="K38" s="1" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"258\nCalories\n\n\n10g \nFat\n\n\n38g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>1699658649-38</t>
         </is>
       </c>
-      <c r="B39" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C39" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D39" s="1" t="inlineStr">
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/PMnMLIqftCclPg57xRUn85xovIA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(399x0:401x2):format(webp)/1554101-smoky-four-pepper-salsa-Ahunani71-4x3-1-2be568fe523942aeb468e156bea744ae.jpg"
@@ -2555,59 +2752,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E39" s="1" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/140294/smoky-four-pepper-salsa/</t>
         </is>
       </c>
-      <c r="F39" s="1" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>Smoky Four-Pepper Salsa</t>
         </is>
       </c>
-      <c r="G39" s="1" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n10 mins\n\n\nAdditional Time:\n15 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n3 cups"}]</t>
         </is>
       </c>
-      <c r="H39" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"8  ripe plum tomatoes\n\n\n1 tablespoon vegetable oil\n\n\n4  poblano peppers\n\n\n4  Anaheim chile peppers\n\n\n1  jalapeno chile pepper, or more to taste\n\n\n1 large green bell pepper\n\n\n2 tablespoons chopped cilantro leaves\n\n\n2 tablespoons white vinegar\n\n\n¼  onion\n\n\n2 cloves garlic\n\n\n2 teaspoons salt\n\n\n¼ teaspoon mesquite flavored liquid smoke concentrate (Optional)"}]</t>
-        </is>
-      </c>
-      <c r="I39" s="1" t="inlineStr">
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '8  ripe plum tomatoes\n\n\n1 tablespoon vegetable oil\n\n\n4  poblano peppers\n\n\n4  Anaheim chile peppers\n\n\n1  jalapeno chile pepper, or more to taste\n\n\n1 large green bell pepper\n\n\n2 tablespoons chopped cilantro leaves\n\n\n2 tablespoons white vinegar\n\n\n¼  onion\n\n\n2 cloves garlic\n\n\n2 teaspoons salt\n\n\n¼ teaspoon mesquite flavored liquid smoke concentrate (Optional)'}]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat an outdoor grill for medium heat."},{"recipe_directions":"Rub tomatoes with oil and grill for 10 minutes, turn. Place poblano, Anaheim, jalapeno chiles, and the green pepper on the grill. Grill 5 to 7 minutes per side, being careful not to let them burn. The skins should blister and brown. Remove tomatoes to a separate bowl. Place the chiles and pepper in an airtight container to let them steam while they cool so they're easier to peel."},{"recipe_directions":"Peel tomatoes and drain excess liquid. Peel and seed peppers."},{"recipe_directions":"Place the tomatoes, chiles, green pepper, cilantro, vinegar, onion, garlic, and salt in the container of a food processor. Pulse 4 or 5 times. Add liquid smoke and more jalapenos if desired. Pulse until salsa is as chunky or smooth as you like."}]</t>
         </is>
       </c>
-      <c r="J39" s="1" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K39" s="1" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"38\nCalories\n\n\n2g \nFat\n\n\n6g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" t="inlineStr">
         <is>
           <t>1699658655-39</t>
         </is>
       </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/UQoihPcgDTaoSGIFf5zfC3gC8yc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/2437817-pickled-daikon-radish-and-carrot-Allrecipes-Magazine-4x3-1-83d3dab1f5034f758f576362922f4d52.jpg"
@@ -2621,59 +2814,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E40" s="1" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/214722/pickled-daikon-radish-and-carrot/</t>
         </is>
       </c>
-      <c r="F40" s="1" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Pickled Daikon Radish and Carrot</t>
         </is>
       </c>
-      <c r="G40" s="1" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nAdditional Time:\n 5 hrs\n\n\nTotal Time:\n 5 hrs 20 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H40" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"½ cup distilled white vinegar\n\n\n¼ cup white sugar\n\n\n1 small carrot, peeled and cut into matchsticks\n\n\n1  daikon radish, peeled and cut into matchsticks\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  Thai chile pepper, seeded and chopped"}]</t>
-        </is>
-      </c>
-      <c r="I40" s="1" t="inlineStr">
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '½ cup distilled white vinegar\n\n\n¼ cup white sugar\n\n\n1 small carrot, peeled and cut into matchsticks\n\n\n1  daikon radish, peeled and cut into matchsticks\n\n\n2 tablespoons chopped fresh cilantro\n\n\n1  Thai chile pepper, seeded and chopped'}]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat vinegar and sugar in a saucepan over low heat until sugar is dissolved. Remove from heat, and refrigerate to cool. Place daikon and carrot in a glass jar with the cilantro and chile peppers. Pour the cooled vinegar mixture over, submerging the vegetables. Cover and refrigerate for at least 4 hours, or overnight."}]</t>
         </is>
       </c>
-      <c r="J40" s="1" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Carrots"}]</t>
         </is>
       </c>
-      <c r="K40" s="1" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"70\nCalories\n\n\n0g \nFat\n\n\n17g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="41" spans="1:10">
-      <c r="A41" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" t="inlineStr">
         <is>
           <t>1699658660-40</t>
         </is>
       </c>
-      <c r="B41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C41" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D41" s="1" t="inlineStr">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/SVrthKI33549nrzs9J8iKph_Yng=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9168851-a5af4d1fe07343d9a8429413fd1bea69.jpg"
@@ -2686,59 +2875,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E41" s="1" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/21108/oatmeal-whole-wheat-quick-bread/</t>
         </is>
       </c>
-      <c r="F41" s="1" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>Oatmeal Whole Wheat Quick Bread</t>
         </is>
       </c>
-      <c r="G41" s="1" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n40 mins\n\n\nServings:\n12 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H41" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 cup rolled oats\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ tablespoons honey\n\n\n1 tablespoon vegetable oil\n\n\n1 cup milk"}]</t>
-        </is>
-      </c>
-      <c r="I41" s="1" t="inlineStr">
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 cup rolled oats\n\n\n1 cup whole wheat flour\n\n\n2 teaspoons baking powder\n\n\n½ teaspoon salt\n\n\n1 ½ tablespoons honey\n\n\n1 tablespoon vegetable oil\n\n\n1 cup milk'}]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 450 degrees F (230 degrees C)."},{"recipe_directions":"Grind oatmeal in a food processor or blender. In a large bowl, combine oatmeal, flour, baking powder and salt. In a separate bowl, dissolve honey in vegetable oil then stir in the milk. Combine both mixtures and stir until a soft dough is formed. Form the dough into a ball and place on a lightly oiled baking sheet."},{"recipe_directions":"Bake in preheated oven for about 20 minutes, or until bottom of loaf sounds hollow when tapped."}]</t>
         </is>
       </c>
-      <c r="J41" s="1" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K41" s="1" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"88\nCalories\n\n\n2g \nFat\n\n\n15g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
         <is>
           <t>1699658667-41</t>
         </is>
       </c>
-      <c r="B42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C42" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D42" s="1" t="inlineStr">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ih-XtwdOUa-ehPID5LGL3cEnADI=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/5847841-19f4f4602c3d49babd8c50aaa364c6a6.jpg"
@@ -2751,59 +2936,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E42" s="1" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/268473/actifried-chicken-wings/</t>
         </is>
       </c>
-      <c r="F42" s="1" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>ActiFried Chicken Wings</t>
         </is>
       </c>
-      <c r="G42" s="1" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n12 mins\n\n\nTotal Time:\n17 mins\n\n\nServings:\n8 \n\n\nYield:\n1 kilogram wings"}]</t>
         </is>
       </c>
-      <c r="H42" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 kg chicken wings\n\n\n  Salt and pepper to taste"}]</t>
-        </is>
-      </c>
-      <c r="I42" s="1" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 kg chicken wings\n\n\n  Salt and pepper to taste'}]</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Put the chicken wings in the ActiFry. Close the lid."},{"recipe_directions":"Leave to cook for 12 minutes. Add salt and pepper to taste."},{"recipe_directions":"If you wish to add a sauce (barbecue) or spices (paprika, Cajun, etc), add 1 or 2 ActiFry spoons 5 minutes before the end of cooking time."}]</t>
         </is>
       </c>
-      <c r="J42" s="1" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Meat and Poultry"},{"recipe_tags":"Chicken"}]</t>
         </is>
       </c>
-      <c r="K42" s="1" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"252\nCalories\n\n\n18g \nFat\n\n\n21g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="43" spans="1:10">
-      <c r="A43" s="1" t="inlineStr">
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>1699658673-42</t>
         </is>
       </c>
-      <c r="B43" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C43" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D43" s="1" t="inlineStr">
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/ezsSVe7CHt1nmaLBG3woC5Qy1IE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/1009871-dark-rye-bread-Moxie-4x3-1-8e5ba98fe7c549d188977f687a7f8e8b.jpg"
@@ -2817,59 +2998,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E43" s="1" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7117/dark-rye-bread/</t>
         </is>
       </c>
-      <c r="F43" s="1" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>Dark Rye Bread</t>
         </is>
       </c>
-      <c r="G43" s="1" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Servings:\n12 \n\n\nYield:\n1 - 1 1/2 pound loaf"}]</t>
         </is>
       </c>
-      <c r="H43" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ⅛ cups water\n\n\n2 tablespoons molasses\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n1 ½ cups rye flour\n\n\n3 tablespoons packed brown sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon caraway seed\n\n\n2 teaspoons bread machine yeast"}]</t>
-        </is>
-      </c>
-      <c r="I43" s="1" t="inlineStr">
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ⅛ cups water\n\n\n2 tablespoons molasses\n\n\n1 tablespoon vegetable oil\n\n\n1 teaspoon salt\n\n\n2 cups all-purpose flour\n\n\n1 ½ cups rye flour\n\n\n3 tablespoons packed brown sugar\n\n\n1 tablespoon unsweetened cocoa powder\n\n\n¾ teaspoon caraway seed\n\n\n2 teaspoons bread machine yeast'}]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place ingredients in the pan of the bread machine in the order recommended by the manufacturer."},{"recipe_directions":"Select the Basic cycle, and press Start."}]</t>
         </is>
       </c>
-      <c r="J43" s="1" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Rye Bread"}]</t>
         </is>
       </c>
-      <c r="K43" s="1" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"159\nCalories\n\n\n2g \nFat\n\n\n33g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
         <is>
           <t>1699658682-43</t>
         </is>
       </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/0NNYW5IYDqu46EF28gT3LzlBwfw=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1131887-391a0d9a9489460da4e1b290e92cba10.jpg"
@@ -2882,59 +3059,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E44" s="1" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/81298/playgroup-granola-bars/</t>
         </is>
       </c>
-      <c r="F44" s="1" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>Playgroup Granola Bars</t>
         </is>
       </c>
-      <c r="G44" s="1" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n35 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n24 \n\n\nYield:\n24 granola bars"}]</t>
         </is>
       </c>
-      <c r="H44" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups rolled oats\n\n\n¾ cup packed brown sugar\n\n\n½ cup wheat germ\n\n\n¾ teaspoon ground cinnamon\n\n\n1 cup all-purpose flour\n\n\n¾ cup raisins (Optional)\n\n\n¾ teaspoon salt\n\n\n½ cup honey\n\n\n1  egg, beaten\n\n\n½ cup vegetable oil\n\n\n2 teaspoons vanilla extract"}]</t>
-        </is>
-      </c>
-      <c r="I44" s="1" t="inlineStr">
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups rolled oats\n\n\n¾ cup packed brown sugar\n\n\n½ cup wheat germ\n\n\n¾ teaspoon ground cinnamon\n\n\n1 cup all-purpose flour\n\n\n¾ cup raisins (Optional)\n\n\n¾ teaspoon salt\n\n\n½ cup honey\n\n\n1  egg, beaten\n\n\n½ cup vegetable oil\n\n\n2 teaspoons vanilla extract'}]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C). Generously grease a 9x13 inch baking pan."},{"recipe_directions":"In a large bowl, mix together the oats, brown sugar, wheat germ, cinnamon, flour, raisins and salt. Make a well in the center, and pour in the honey, egg, oil and vanilla. Mix well using your hands. Pat the mixture evenly into the prepared pan."},{"recipe_directions":"Bake for 30 to 35 minutes in the preheated oven, until the bars begin to turn golden at the edges. Cool for 5 minutes, then cut into bars while still warm. Do not allow the bars to cool completely before cutting, or they will be too hard to cut."}]</t>
         </is>
       </c>
-      <c r="J44" s="1" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Kids"},{"recipe_tags":"Healthy"}]</t>
         </is>
       </c>
-      <c r="K44" s="1" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"161\nCalories\n\n\n6g \nFat\n\n\n27g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
         <is>
           <t>1699658688-44</t>
         </is>
       </c>
-      <c r="B45" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C45" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D45" s="1" t="inlineStr">
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/3M03hv_F3wYQn4ioOcSalYgmD8w=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/9260595-00b976ebc08d44b8bd8227b4c621a42a.jpg"
@@ -2947,59 +3120,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E45" s="1" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/14860/roasted-garlic/</t>
         </is>
       </c>
-      <c r="F45" s="1" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>Roasted Garlic</t>
         </is>
       </c>
-      <c r="G45" s="1" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 5 mins\n\n\nServings:\n15 \n\n\nYield:\n15 servings"}]</t>
         </is>
       </c>
-      <c r="H45" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"10 medium heads garlic\n\n\n3 tablespoons olive oil"}]</t>
-        </is>
-      </c>
-      <c r="I45" s="1" t="inlineStr">
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '10 medium heads garlic\n\n\n3 tablespoons olive oil'}]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C)."},{"recipe_directions":"Arrange heads of garlic on a baking sheet. Sprinkle garlic with olive oil. Bake for 40 minutes to 1 hour, when the garlic is soft and squeezable, it is ready. Remove, let cool, and serve."}]</t>
         </is>
       </c>
-      <c r="J45" s="1" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"}]</t>
         </is>
       </c>
-      <c r="K45" s="1" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"80\nCalories\n\n\n3g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>1699658697-45</t>
         </is>
       </c>
-      <c r="B46" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C46" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D46" s="1" t="inlineStr">
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/tx5G0AIE020neN5ABR7PFLADbIQ=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1307867-febcfd1d26c347df940c5a3fe9baadae.jpg"
@@ -3012,59 +3181,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E46" s="1" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/219456/healthier-buffalo-chicken-dip/</t>
         </is>
       </c>
-      <c r="F46" s="1" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>Healthier Buffalo Chicken Dip</t>
         </is>
       </c>
-      <c r="G46" s="1" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n40 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n40 \n\n\nYield:\n5 cups"}]</t>
         </is>
       </c>
-      <c r="H46" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (10 ounce) cans natural chunk chicken, drained\n\n\n¾ cup hot pepper sauce (such as Frank's RedHot)\n\n\n2 (8 ounce) packages reduced-fat cream cheese, softened\n\n\n1 cup light ranch dressing\n\n\n1 cup shredded reduced-fat Cheddar cheese, divided\n\n\n1 bunch celery, cleaned and cut into 4-inch pieces\n\n\n8 ounces multigrain crackers"}]</t>
-        </is>
-      </c>
-      <c r="I46" s="1" t="inlineStr">
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': "2 (10 ounce) cans natural chunk chicken, drained\n\n\n¾ cup hot pepper sauce (such as Frank's RedHot)\n\n\n2 (8 ounce) packages reduced-fat cream cheese, softened\n\n\n1 cup light ranch dressing\n\n\n1 cup shredded reduced-fat Cheddar cheese, divided\n\n\n1 bunch celery, cleaned and cut into 4-inch pieces\n\n\n8 ounces multigrain crackers"}]</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat chicken and hot sauce in a skillet over medium heat until heated through, about 5 minutes. Stir in cream cheese and ranch dressing; cook and stir until well blended and warm, 5 to 7 minutes. Mix in 1/2 of the Cheddar."},{"recipe_directions":"Transfer mixture to a slow cooker. Sprinkle remaining Cheddar over top. Cover and cook on Low until hot and bubbly, about 30 minutes."},{"recipe_directions":"Serve with celery sticks and crackers."},{"recipe_directions":"This recipe is a healthier version of Buffalo Chicken Dip."}]</t>
         </is>
       </c>
-      <c r="J46" s="1" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Cheese Dips and Spreads Recipes"}]</t>
         </is>
       </c>
-      <c r="K46" s="1" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"78\nCalories\n\n\n5g \nFat\n\n\n6g \nCarbs\n\n\n3g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
         <is>
           <t>1699658708-46</t>
         </is>
       </c>
-      <c r="B47" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C47" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D47" s="1" t="inlineStr">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/rXyftBURtZOc2HMq8f67tSl4UaE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(639x0:641x2):format(webp)/image-92-af71d99a078b465083be03764e773698.jpg"
@@ -3078,59 +3243,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E47" s="1" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/52635/low-fat-blueberry-bran-muffins/</t>
         </is>
       </c>
-      <c r="F47" s="1" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>Low-Fat Blueberry Bran Muffins</t>
         </is>
       </c>
-      <c r="G47" s="1" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n12 \n\n\nYield:\n12 muffins"}]</t>
         </is>
       </c>
-      <c r="H47" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 ½ cups wheat bran\n\n\n1 cup nonfat milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg\n\n\n⅔ cup brown sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup blueberries"}]</t>
-        </is>
-      </c>
-      <c r="I47" s="1" t="inlineStr">
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 ½ cups wheat bran\n\n\n1 cup nonfat milk\n\n\n½ cup unsweetened applesauce\n\n\n1  egg\n\n\n⅔ cup brown sugar\n\n\n½ teaspoon vanilla extract\n\n\n½ cup all-purpose flour\n\n\n½ cup whole wheat flour\n\n\n1 teaspoon baking soda\n\n\n1 teaspoon baking powder\n\n\n½ teaspoon salt\n\n\n1 cup blueberries'}]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Preheat oven to 375 degrees F (190 degrees C). Grease muffin cups or use paper muffin liners. Mix together wheat bran and milk, and let stand for 10 minutes."},{"recipe_directions":"In a large bowl, mix together applesauce, egg, brown sugar, and vanilla. Beat in bran mixture. Sift together all-purpose flour, whole wheat flour, baking soda, baking powder, and salt. Stir into bran mixture until just blended. Fold in blueberries. Scoop into muffin cups."},{"recipe_directions":"Bake in preheated oven for 15 to 20 minutes, or until tops spring back when lightly tapped."}]</t>
         </is>
       </c>
-      <c r="J47" s="1" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"},{"recipe_tags":"Muffin Recipes"},{"recipe_tags":"Whole Wheat Muffin Recipes"}]</t>
         </is>
       </c>
-      <c r="K47" s="1" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"123\nCalories\n\n\n1g \nFat\n\n\n28g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="48" spans="1:10">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
         <is>
           <t>1699658717-47</t>
         </is>
       </c>
-      <c r="B48" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C48" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D48" s="1" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/lFzqGrxI3nfI7IwKddFHzjs_GNk=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3385720-1a560ec3f49241969c16bede3aeca447.jpg"
@@ -3143,59 +3304,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E48" s="1" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/246372/perfectly-dry-roasted-chickpeas/</t>
         </is>
       </c>
-      <c r="F48" s="1" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>Perfectly Dry Roasted Chickpeas</t>
         </is>
       </c>
-      <c r="G48" s="1" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n40 mins\n\n\nAdditional Time:\n 2 hrs 45 mins\n\n\nTotal Time:\n 3 hrs 30 mins\n\n\nServings:\n4 \n\n\nYield:\n2 cups"}]</t>
         </is>
       </c>
-      <c r="H48" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas (garbanzo beans), drained and rinsed\n\n\n1 teaspoon mixed spice\n\n\n  sea salt to taste"}]</t>
-        </is>
-      </c>
-      <c r="I48" s="1" t="inlineStr">
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas (garbanzo beans), drained and rinsed\n\n\n1 teaspoon mixed spice\n\n\n  sea salt to taste'}]</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Spread chickpeas on paper towels; allow to air dry completely, about 45 minutes."},{"recipe_directions":"Preheat oven to 400 degrees F (200 degrees C). Line a baking sheet with parchment paper."},{"recipe_directions":"Spread chickpeas on prepared baking sheet."},{"recipe_directions":"Bake in the preheated oven until golden, about 40 minutes, shaking pan every 10 minutes. Remove chickpeas from oven; toss with mixed spice and salt. Place chickpeas back into the oven; turn oven off until completely cold, about 2 hours or up to overnight."}]</t>
         </is>
       </c>
-      <c r="J48" s="1" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Beans and Peas"}]</t>
         </is>
       </c>
-      <c r="K48" s="1" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"85\nCalories\n\n\n1g \nFat\n\n\n16g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="49" spans="1:10">
-      <c r="A49" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>1699658725-48</t>
         </is>
       </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C49" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D49" s="1" t="inlineStr">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/_4KePva_l9T1RTs6iHzCAJuuuk8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(124x0:126x2):format(webp)/135997-7a99f1a65fd14a7c851e558fb4d54749.jpg"
@@ -3208,59 +3365,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E49" s="1" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/20942/beer-battered-onion-rings/</t>
         </is>
       </c>
-      <c r="F49" s="1" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>Beer Battered Onion Rings</t>
         </is>
       </c>
-      <c r="G49" s="1" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n25 mins\n\n\nServings:\n6 \n\n\nYield:\n6 servings"}]</t>
         </is>
       </c>
-      <c r="H49" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons dried parsley\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup beer\n\n\n3 large onions, sliced into rings\n\n\n1 cup oil for frying"}]</t>
-        </is>
-      </c>
-      <c r="I49" s="1" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups all-purpose flour\n\n\n1  egg, beaten\n\n\n2 teaspoons dried parsley\n\n\n2 teaspoons garlic powder\n\n\n2 teaspoons dried oregano\n\n\n  salt and pepper to taste\n\n\n1 cup beer\n\n\n3 large onions, sliced into rings\n\n\n1 cup oil for frying'}]</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a shallow bowl combine flour, egg, parsley, garlic powder, oregano, salt and pepper. Gradually add beer, stirring, until a thick batter forms. Add more or less beer depending on the desired consistency of the batter."},{"recipe_directions":"In a heavy frying pan heat oil (adjust amount, depending on the size of your pan, so that you have a couple of inches of oil) over medium-high heat. When oil is hot, dip onions in batter and fry, turning once to brown evenly on both sides. Drain on paper towels."},{"recipe_directions":"We have determined the nutritional value of oil for frying based on a retention value of 10% after cooking. The exact amount may vary depending on cook time and temperature, ingredient density, and the specific type of oil used."}]</t>
         </is>
       </c>
-      <c r="J49" s="1" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"}]</t>
         </is>
       </c>
-      <c r="K49" s="1" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"248\nCalories\n\n\n5g \nFat\n\n\n41g \nCarbs\n\n\n7g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
         <is>
           <t>1699658734-49</t>
         </is>
       </c>
-      <c r="B50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C50" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D50" s="1" t="inlineStr">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/9IGZ7TgACIsrQGB39ReBYJpK8PY=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(539x0:541x2):format(webp)/6324174-c74344d05d0945aebfe6d6a5a7f8ac50.jpg"
@@ -3273,59 +3426,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E50" s="1" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/17225/roti-bread-from-india/</t>
         </is>
       </c>
-      <c r="F50" s="1" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>Roti Bread from India</t>
         </is>
       </c>
-      <c r="G50" s="1" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n25 mins\n\n\nTotal Time:\n45 mins\n\n\nServings:\n12 \n\n\nYield:\n12 roti breads"}]</t>
         </is>
       </c>
-      <c r="H50" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups durum wheat flour\n\n\n¾ cup water\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I50" s="1" t="inlineStr">
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups durum wheat flour\n\n\n¾ cup water\n\n\n1 tablespoon vegetable oil\n\n\n½ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Stir flour, water, oil, and salt together in a medium bowl until well combined and pulling away from the sides. Turn dough out onto a well-floured surface and knead until smooth and pliable, about 10 minutes."},{"recipe_directions":"Divide dough into 12 equal pieces. Form each piece into a round. Working with one round at a time while all others are covered with a damp cloth, flatten with the palm of your hand, then use a rolling pin to roll into 6- to 8-inch diameter circle."},{"recipe_directions":"Heat a dry skillet or tava over medium-high heat. Cook one roti at a time in the hot skillet until golden with some darker brown spots, about 1 minute per side, As it cooks, roll the next roti. Serve warm."}]</t>
         </is>
       </c>
-      <c r="J50" s="1" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Quick Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K50" s="1" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"119\nCalories\n\n\n2g \nFat\n\n\n23g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
         <is>
           <t>1699658743-50</t>
         </is>
       </c>
-      <c r="B51" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C51" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D51" s="1" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/teXLz6ZnGsCFyUebFlBs2HI6pag=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/673791-honey-wheat-bread-ii-Holiday-Baker-4x3-1-88c92e1b26254fe78e76842346b9013e.jpg"
@@ -3339,59 +3488,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E51" s="1" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6763/honey-wheat-bread-ii/</t>
         </is>
       </c>
-      <c r="F51" s="1" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>Honey Wheat Bread II</t>
         </is>
       </c>
-      <c r="G51" s="1" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n30 mins\n\n\nCook Time:\n30 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs\n\n\nServings:\n24 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H51" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 cups warm water (110 degrees F/45 degrees C)\n\n\n2 cups whole wheat flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n⅓ cup honey\n\n\n⅓ cup vegetable oil\n\n\n5 cups all-purpose flour"}]</t>
-        </is>
-      </c>
-      <c r="I51" s="1" t="inlineStr">
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 cups warm water (110 degrees F/45 degrees C)\n\n\n2 cups whole wheat flour\n\n\n1 tablespoon active dry yeast\n\n\n1 teaspoon salt\n\n\n⅓ cup honey\n\n\n⅓ cup vegetable oil\n\n\n5 cups all-purpose flour'}]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Dissolve yeast in warm water. Add honey, and stir well. Mix in whole wheat flour, salt, and vegetable oil. Work all-purpose flour in gradually. Turn dough out onto a lightly floured surface, and knead for at least 10 to 15 minutes. When dough is smooth and elastic, place it in a well oiled bowl. Turn it several times in the bowl to coat the surface of the dough, and cover with a damp cloth. Let rise in a warm place until doubled in bulk, about 45 minutes."},{"recipe_directions":"Punch down the dough. Shape into two loaves, and place into two well greased 9 x 5 inch loaf pans. Allow to rise until dough is 1 to 1 1/2 inches above pans."},{"recipe_directions":"Bake at 375 degrees F (190 degrees C) for 25 to 30 minutes."}]</t>
         </is>
       </c>
-      <c r="J51" s="1" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Wheat Bread"}]</t>
         </is>
       </c>
-      <c r="K51" s="1" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"172\nCalories\n\n\n4g \nFat\n\n\n31g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="1" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
         <is>
           <t>1699658751-51</t>
         </is>
       </c>
-      <c r="B52" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C52" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D52" s="1" t="inlineStr">
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/r2RZJkyZinFqAR6wNbgB87XIRKc=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/54346-Applesauce-Tammy-Lynn-1x1-1-2000-7841a69361d940e6b273e7512ba80971.jpg"
@@ -3405,59 +3550,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E52" s="1" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/54346/applesauce/</t>
         </is>
       </c>
-      <c r="F52" s="1" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>Applesauce</t>
         </is>
       </c>
-      <c r="G52" s="1" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n15 mins\n\n\nTotal Time:\n35 mins\n\n\nServings:\n4 \n\n\nYield:\n4 servings"}]</t>
         </is>
       </c>
-      <c r="H52" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar"}]</t>
-        </is>
-      </c>
-      <c r="I52" s="1" t="inlineStr">
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '6 cups apples - peeled, cored and chopped\n\n\n¾ cup water\n\n\n⅛ teaspoon ground cinnamon\n\n\n⅛ teaspoon ground cloves\n\n\n½ cup white sugar'}]</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"In a 2 quart saucepan over medium heat, combine apples, water, cinnamon, and cloves. Bring to a boil, reduce heat, and simmer 10 minutes. Stir in sugar, and simmer 5 more minutes."}]</t>
         </is>
       </c>
-      <c r="J52" s="1" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Applesauce Recipes"}]</t>
         </is>
       </c>
-      <c r="K52" s="1" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"195\nCalories\n\n\n0g \nFat\n\n\n51g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" s="1" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
         <is>
           <t>1699658758-52</t>
         </is>
       </c>
-      <c r="B53" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C53" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D53" s="1" t="inlineStr">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/iV6uXoy3ThkNoiX0bcBIrirc3Rs=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/866636-a3f03b3d2b384508a28e55a6a595770d.jpg"
@@ -3470,59 +3611,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16259/ds-famous-salsa/</t>
         </is>
       </c>
-      <c r="F53" s="1" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>D's Famous Salsa</t>
         </is>
       </c>
-      <c r="G53" s="1" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n16"}]</t>
         </is>
       </c>
-      <c r="H53" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 (14.5 ounce) cans stewed tomatoes\n\n\n½  onion, finely diced\n\n\n¼ cup canned sliced green chiles, or to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n½  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I53" s="1" t="inlineStr">
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 (14.5 ounce) cans stewed tomatoes\n\n\n½  onion, finely diced\n\n\n¼ cup canned sliced green chiles, or to taste\n\n\n3 tablespoons chopped fresh cilantro\n\n\n½  lime, juiced\n\n\n1 teaspoon minced garlic\n\n\n1 teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place tomatoes, onion, green chiles, cilantro, lime juice, garlic, and salt in a blender or food processor. Blend on low to desired consistency."}]</t>
         </is>
       </c>
-      <c r="J53" s="1" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K53" s="1" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"16\nCalories\n\n\n0g \nFat\n\n\n4g \nCarbs\n\n\n1g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="1" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
         <is>
           <t>1699658766-53</t>
         </is>
       </c>
-      <c r="B54" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C54" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D54" s="1" t="inlineStr">
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/X-LXMFJ6oFMnv-P7oXtA6EQElBE=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1151x0:1153x2):format(webp)/6263825-a6f95ec486724b9bbcda6449d8ffc067.jpg"
@@ -3535,59 +3672,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/6799/honey-whole-wheat-bread/</t>
         </is>
       </c>
-      <c r="F54" s="1" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>Honey Whole Wheat Bread</t>
         </is>
       </c>
-      <c r="G54" s="1" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n 3 hrs\n\n\nTotal Time:\n 3 hrs 5 mins\n\n\nServings:\n10 \n\n\nYield:\n1 loaf"}]</t>
         </is>
       </c>
-      <c r="H54" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 1/8 cups warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons honey\n\n\n2 tablespoons vegetable oil\n\n\n1 1/2 cups whole wheat flour\n\n\n1 1/2 cups bread flour\n\n\n1/3 teaspoon salt\n\n\n1 1/2 teaspoons active dry yeast"}]</t>
-        </is>
-      </c>
-      <c r="I54" s="1" t="inlineStr">
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 1/8 cups warm water (110 degrees F/45 degrees C)\n\n\n3 tablespoons honey\n\n\n2 tablespoons vegetable oil\n\n\n1 1/2 cups whole wheat flour\n\n\n1 1/2 cups bread flour\n\n\n1/3 teaspoon salt\n\n\n1 1/2 teaspoons active dry yeast'}]</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place water, honey, oil, whole wheat flour, bread flour, salt, then yeast into a bread machine in the order listed, or follow the order recommended by the manufacturer if different."},{"recipe_directions":"Run Whole Wheat cycle, light color setting."},{"recipe_directions":"Remove loaf from the machine after the cycle is done, about 3 hours."}]</t>
         </is>
       </c>
-      <c r="J54" s="1" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"},{"recipe_tags":"Whole Grain Bread Recipes"},{"recipe_tags":"Wheat Bread"}]</t>
         </is>
       </c>
-      <c r="K54" s="1" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"180\nCalories\n\n\n4g \nFat\n\n\n33g \nCarbs\n\n\n5g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="1" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
         <is>
           <t>1699658774-54</t>
         </is>
       </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C55" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D55" s="1" t="inlineStr">
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/jlfRoWGWODbSmLw9NBR-nQ1Ii9U=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/4428747-66387bdad9624f3f86879e33c041ad76.jpg"
@@ -3600,59 +3733,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223112/first-baby-food-peas/</t>
         </is>
       </c>
-      <c r="F55" s="1" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>First Baby Food: Peas</t>
         </is>
       </c>
-      <c r="G55" s="1" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 20 mins\n\n\nServings:\n12"}]</t>
         </is>
       </c>
-      <c r="H55" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"3 cups frozen peas\n\n\n½ cup breast milk"}]</t>
-        </is>
-      </c>
-      <c r="I55" s="1" t="inlineStr">
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '3 cups frozen peas\n\n\n½ cup breast milk'}]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Place a steamer insert into a saucepan and fill with water to just below the bottom of the steamer. Bring water to a boil. Add peas, cover, and steam until tender, about 15 minutes."},{"recipe_directions":"Place peas and breast milk in a blender or food processor; puree until creamy. Strain mixture through a fine-mesh sieve to remove any lumps."},{"recipe_directions":"Spread pea mixture into an ice cube tray; cover with plastic wrap and freeze until solid, 2 to 3 hours. Transfer frozen cubes to a resealable plastic bag and store in the freezer."},{"recipe_directions":"To serve, heat cubes in the microwave for about 30 seconds until warm but not hot. Stir thoroughly."},{"recipe_directions":"You can use fresh peas instead of frozen ones if you have them. You can also substitute formula or water for breast milk."},{"recipe_directions":"Store frozen cubes in the freezer for up to 2 months."}]</t>
         </is>
       </c>
-      <c r="J55" s="1" t="inlineStr">
+      <c r="J55" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Vegetables"},{"recipe_tags":"Green Peas"}]</t>
         </is>
       </c>
-      <c r="K55" s="1" t="inlineStr">
+      <c r="K55" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"47\nCalories\n\n\n1g \nFat\n\n\n8g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="56" spans="1:10">
-      <c r="A56" s="1" t="inlineStr">
+    <row r="56">
+      <c r="A56" t="inlineStr">
         <is>
           <t>1699658781-55</t>
         </is>
       </c>
-      <c r="B56" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C56" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D56" s="1" t="inlineStr">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/2e-m-leLXuNAJdOMfKewcSSjIHo=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(999x0:1001x2):format(webp)/7127669-2000-8909785ac3ff41ef8dab5e11e559fd88.jpg"
@@ -3664,59 +3793,55 @@
 30 Daniel Fast Snacks</t>
         </is>
       </c>
-      <c r="E56" s="1" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/gallery/daniel-fast-snacks/</t>
         </is>
       </c>
-      <c r="F56" s="1" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>30 Daniel Fast Snacks</t>
         </is>
       </c>
-      <c r="G56" s="1" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H56" s="1" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="I56" s="1" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"If you haven't heard of the Daniel Fast, it's a biblically-based, 21-day fast that is growing in popularity thanks to some major celebrity endorsements. It's more or less a vegan diet that prohibits refined carbs, added sugars, caffeine, and alcohol. So what can you eat on the Daniel Fast? Tons of different plant-based foods, provided they don't contain added sugars. Snack time doesn't have to be boring on the Daniel Fast. Discover 29 Daniel Fast snacks that you'll actually look forward to eating."},{"recipe_directions":"Hummus makes a great afternoon pick-me-up because it's high in protein. Give this black bean hummus a try with celery or carrot sticks for a healthy snack that can be enjoyed on the Daniel Fast."},{"recipe_directions":"Enjoy this tropical salsa on its own or served with whole-grain crackers. Reviewer ATMLADY says, \"I like to serve it with chips and alongside some fresh, homemade guacamole.\""},{"recipe_directions":"This Levantine dip is made from a mixture of roasted eggplant, tahini, garlic, lemon juice, and sesame seeds."},{"recipe_directions":"Sweet watermelon replaces fresh tomatoes in this sweet-heat salsa. \"Who knew something this simple could be so good,\" raves reviewer TUNISIANWIFE."},{"recipe_directions":"This classic lunch-box snack can be enjoyed by kids and adults alike. Just be sure to use all-natural peanut butter with no added sugars if you're trying to stick to the Daniel Fast."},{"recipe_directions":"Yes, you can still enjoy this favorite comfort food while on the Daniel Fast. In this recipe, sweet potatoes are boiled, sliced into wedges, seasoned with a zesty lime and chili powder mixture, and roasted."},{"recipe_directions":"\"This is a typical Northern Indian recipe that is easy to make, and delicious. You will need to go to an Indian grocery to buy the masalas,\" says recipe creator Mondeep."},{"recipe_directions":"The air fryer is going to be your best friend on the Daniel Fast because it allows you to get that crisped, fried taste without the excess oil that comes with deeping frying (which is prohibited on the Daniel Fast). These potato wedges are seasoned with paprika, parsley, chili powder, salt, and pepper."},{"recipe_directions":"Edamame is transformed into a savory snack. Simply toss the beans in a mixture of olive oil and seasonings, and roast on a baking dish."},{"recipe_directions":"\"These tasty potato skins are lower in fat than the original version because they are baked and not fried,\" says recipe creator Candice."},{"recipe_directions":"A little roasting in the oven does a lot of good for cherry tomatoes. Stuff them with a garlic sliver and drizzle with olive oil and you have a restaurant-quality appetizer or snack."},{"recipe_directions":"Sweet and savory are combined in this fresh fruit salsa that's entirely Daniel Fast-approved. \"It's a favorite at every party I take it to,\" says reviewer Kristin Riggs Hampsten."},{"recipe_directions":"Use this trick from reviewer Rich Suchoski for even crispier sweet potato fries: \"The one modification I did was to cut the sweet potato, then soak the fries in water for at least 10 minutes, to make them more crispy.\""},{"recipe_directions":"The air fryer turns green beans into a salty snack with a satisfying crunch."},{"recipe_directions":"\"These lovely raw food snacks taste just like cinnamon buns,\" says recipe creator AngelasHeaven.com. Believe it or not, these sweet treats are made entirely with walnuts, dates, cinnamon, and cardamom."},{"recipe_directions":"Sometimes snacktime requires a little creativity, especially on the Daniel Fast. Here avocado halves are sliced into cubes (still attached to the peel), drizzled with lemon, kosher salt, and hot sauce (Daniel Fast-friendly hot sauce, of course)."},{"recipe_directions":"\"Tostones are made with green (unripe) plantains and are a very popular side dish in many Caribbean and South American countries,\" says recipe creator fabeveryday. \"The traditional method is to twice-fry the plantains in oil, but this air-fried version of my Puerto Rican family's recipe is much lighter as it uses olive oil spray instead of deep-frying.\""},{"recipe_directions":"Corn nuts, vegetable oil, and salt are all you need to whip up this salty snack in the air fryer. So grab a handful, sit back, and enjoy."},{"recipe_directions":"Replicate this popular potato chip flavor using chickpeas and the air fryer! Take it from reviewer Soup Loving Nicole who says, \"Plan on doubling this recipe to save yourself an extra trip to the store. They will disappear very quickly. They are that good. These are a must try if you are a fan of the salt and vinegar flavor combo.\""},{"recipe_directions":"Garam masala and curry powder bring a kick to otherwise bland cauliflower. \"Fantastic flavor! This does have some heat so if you don't like things too spicy cut back or omit the cayenne as the garam masala itself also has some heat,\" says reviewer France C."},{"recipe_directions":"Swap store-bought granola bars that are loaded with sugar for these homemade bars that are vegan, sugar-free, and oil-free."},{"recipe_directions":"\"This is my copycat-version of a bliss ball that I discovered at a local juice bar. These little guys taste amazing! They're raw, vegan, gluten-free, and fabulous,\" says recipe creator Malina Bleeding Heart Morris. \"Maca root is a powerful superfood! These little bites pack a wallop and taste phenomenal! Kind of like a cardamom-laced salted caramel snack.\""},{"recipe_directions":"These apple chips pack a punch thanks to the Tajin seasoning — which is vegan and sugar-free!"},{"recipe_directions":"Celery root fries are served with a vegan mayonnaise-based dipping sauce."},{"recipe_directions":"Sweet potato fries are baked and served with a simple sauce: \"The dip is simple with only a few ingredients, making it easy to whip up without a special trip to the grocery store,\" says reviewer Sandra Christine Skalbeck."},{"recipe_directions":"This three-ingredient trail mix is as simple as it gets: almonds, sunflower seeds, and unsweetened shredded coconut."},{"recipe_directions":"Everything bagel seasoning is all the rage, but we bet you hadn't thought to use it on asparagus!"},{"recipe_directions":"Kale chips are nothing new, but the air fryer makes cooking them even easier, not to mention delightfully crispy!"},{"recipe_directions":"If you're feeling a little low on energy while fasting, here's your perfect pick-me-up: \"Medjool dates, shredded coconut, and smoked almonds are processed into these vegan energy rolls that are perfect for a quick snack in between meals,\" says recipe creator Bren."},{"recipe_directions":"Make this healthy, Daniel Fast-approved snack with just dried fruit, raisins, sunflower seeds, and unsalted peanuts."},{"recipe_directions":"Try one of Our Most Delicious Recipes to Kickstart Your Daniel Fast. Plus, explore our entire collection of Healthy Recipes."}]</t>
         </is>
       </c>
-      <c r="J56" s="1" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Snacks"}]</t>
         </is>
       </c>
-      <c r="K56" s="1" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
     </row>
-    <row r="57" spans="1:10">
-      <c r="A57" s="1" t="inlineStr">
+    <row r="57">
+      <c r="A57" t="inlineStr">
         <is>
           <t>1699658786-56</t>
         </is>
       </c>
-      <c r="B57" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C57" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/8MEgq8XdLVK50NrRp2-1SiZd7T4=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(659x0:661x2):format(webp)/Crispy-Air-Fryer-Chickpeas-1x1-1-3310f74ce2934ccea98434fc6cd04fa5.jpg"
@@ -3730,59 +3855,55 @@
 Rating</t>
         </is>
       </c>
-      <c r="E57" s="1" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/8533853/crispy-air-fryer-chickpeas/</t>
         </is>
       </c>
-      <c r="F57" s="1" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Crispy Air Fryer Chickpeas</t>
         </is>
       </c>
-      <c r="G57" s="1" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n5 mins\n\n\nCook Time:\n15 mins\n\n\nStand Time:\n30 mins\n\n\nTotal Time:\n50 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H57" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 (15 ounce) can chickpeas, drained\n\n\n2 teaspoons chili-lime seasoning (such as Tajin®)\n\n\n1 teaspoon olive oil\n\n\n⅛ teaspoon cayenne pepper"}]</t>
-        </is>
-      </c>
-      <c r="I57" s="1" t="inlineStr">
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 (15 ounce) can chickpeas, drained\n\n\n2 teaspoons chili-lime seasoning (such as Tajin®)\n\n\n1 teaspoon olive oil\n\n\n⅛ teaspoon cayenne pepper'}]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Rinse chickpeas in a colander. Allow to drain and dry for 20 minutes."},{"recipe_directions":"Preheat an air fryer to 350 degrees F (175 degrees C) for 5 minutes."},{"recipe_directions":"Transfer chickpeas to a bowl. Add Tajin, olive oil, and cayenne. Stir until evenly combined. Spread out chickpeas in the air fryer basket."},{"recipe_directions":"Cook for 5 minutes, shake basket, and cook for 5 minutes more. Shake one more time and continue cooking until chick peas are crisp, about 5 more minute"},{"recipe_directions":"Transfer to a paper towel lined plate and let sit 10 minutes."}]</t>
         </is>
       </c>
-      <c r="J57" s="1" t="inlineStr">
+      <c r="J57" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Healthy Recipes"},{"recipe_tags":"Snacks"}]</t>
         </is>
       </c>
-      <c r="K57" s="1" t="inlineStr">
+      <c r="K57" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"11\nCalories\n\n\n1g \nFat"}]</t>
         </is>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" s="1" t="inlineStr">
+    <row r="58">
+      <c r="A58" t="inlineStr">
         <is>
           <t>1699658791-57</t>
         </is>
       </c>
-      <c r="B58" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C58" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D58" s="1" t="inlineStr">
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/neeGfpnvjqS1ZpK0raPG1WPExOA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1038134-7d624372d49a4ffd88a0bab2c2773fd1.jpg"
@@ -3795,59 +3916,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E58" s="1" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/223467/granola-bars/</t>
         </is>
       </c>
-      <c r="F58" s="1" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>Granola Bars</t>
         </is>
       </c>
-      <c r="G58" s="1" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nCook Time:\n25 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 1 hr 40 mins\n\n\nServings:\n8"}]</t>
         </is>
       </c>
-      <c r="H58" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"cooking spray\n\n\n2 cups rolled oats\n\n\n½ cup shredded coconut\n\n\n½ cup honey\n\n\n2 tablespoons creamy peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n⅛ teaspoon salt"}]</t>
-        </is>
-      </c>
-      <c r="I58" s="1" t="inlineStr">
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': 'cooking spray\n\n\n2 cups rolled oats\n\n\n½ cup shredded coconut\n\n\n½ cup honey\n\n\n2 tablespoons creamy peanut butter\n\n\n1 teaspoon vanilla extract\n\n\n⅛ teaspoon salt'}]</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Skip the store-bought stuff and make granola bars at home! This homemade granola bar recipe is quick, wholesome, and budget-friendly. Plus, it's easy to tweak the ingredients based on what you have on hand."},{"recipe_directions":"It couldn't be easier to make granola bars at home. You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect:"},{"recipe_directions":"1. Toast the oats and coconut in the oven.\n2. Mix the remaining ingredients over medium heat.\n3. Pour the peanut butter mixture over the toasted oats and coconut.\n4. Baked until the granola has reached the desired texture.\n5. Cool completely before cutting."},{"recipe_directions":"Granola bars can be as healthy as you want them to be! They're super versatile, so you can personalize the ingredients to suit your needs."},{"recipe_directions":"This fiber- and protein-packed homemade granola bar recipe calls for a deliciously wholesome mixture of rolled oats, shredded coconut, and peanut butter. It's simply sweetened with honey and vanilla extract, while a pinch of salt enhances the other flavors."},{"recipe_directions":"\"This is a great recipe that you can customize to make your own,\" according to culinary producer Nicole McLaughlin (a.k.a. NicoleMcmom). Here are some of her favorite ways to switch things up:"},{"recipe_directions":"· Substitute almond butter (for peanut butter) and/or maple syrup (for honey).\n· Stir in chocolate chips, chopped nuts, raisins, and/or dried cranberries.\n· Don't like coconut? Leave it out! The only absolutely essential ingredients are nut butter, oats, and a sweetener. The rest is entirely up to you."},{"recipe_directions":"Store the granola bars in a shallow, airtight container with parchment or wax paper between each layer to prevent sticking. You can also individually wrap each bar in wax or parchment paper. They should last about a week."},{"recipe_directions":"Yes, you can freeze homemade granola bars for up to two months. Arrange the bars in a single layer on a baking sheet, cover, and freeze for a few hours or up to overnight. Transfer the now-frozen bars to a zip-top freezer bag or another freezer-safe container for long-term storage. Thaw at room temperature before enjoying."},{"recipe_directions":"\"Great basic granola bar recipe,\" says anru7695. \"Tasty and easy. Came right out of the (greased) pan. I cut it twice — once while still slightly warm, then I went over the lines again after it had cooled completely. Worked for me.\""},{"recipe_directions":"\"Perfect,\" according to Kelly Hebron. \"I added sunflower seeds, flaxseeds, raisins, and chocolate chips. It was a winner in our house! Don't cook it for 15 minutes unless you want it crisp.\""},{"recipe_directions":"\"I'm eating some now and it is super duper delicious,\" raves Rachel Butler. \"I baked it for just about 9 minutes and it's wonderfully chewy.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Preheat the oven to 325 degrees F (165 degrees C). Grease a 9-inch square baking dish."},{"recipe_directions":"Spread oats and coconut evenly across a baking sheet."},{"recipe_directions":"Toast oats and coconut in the preheated oven until browned, about 10 minutes; transfer to a large mixing bowl."},{"recipe_directions":"Mix honey, peanut butter, vanilla, and salt in a saucepan over medium-low heat. Cook and stir until smooth. Pour honey mixture over oats and coconut. Stir to coat. Spread mixture evenly into the prepared baking dish."},{"recipe_directions":"Bake in the preheated oven until beginning to dry, about 15 minutes for crunchy granola bars, less if you like them chewy. Cool completely before cutting."}]</t>
         </is>
       </c>
-      <c r="J58" s="1" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Snacks"},{"recipe_tags":"Granola Bar Recipes"}]</t>
         </is>
       </c>
-      <c r="K58" s="1" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"188\nCalories\n\n\n5g \nFat\n\n\n34g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="59" spans="1:10">
-      <c r="A59" s="1" t="inlineStr">
+    <row r="59">
+      <c r="A59" t="inlineStr">
         <is>
           <t>1699658796-58</t>
         </is>
       </c>
-      <c r="B59" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C59" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D59" s="1" t="inlineStr">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/F8ovEeYpxfTJKAdShe3ea7uOxko=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(1999x0:2001x2):format(webp)/16542-Salsa-ddmfs-4x3-041-8a68e3aa135c4d35bbaa0a01a9d3403e.jpg"
@@ -3861,59 +3978,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E59" s="1" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/16542/salsa/</t>
         </is>
       </c>
-      <c r="F59" s="1" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>Salsa</t>
         </is>
       </c>
-      <c r="G59" s="1" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nTotal Time:\n10 mins\n\n\nServings:\n4 \n\n\nYield:\n4 cups"}]</t>
         </is>
       </c>
-      <c r="H59" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced"}]</t>
-        </is>
-      </c>
-      <c r="I59" s="1" t="inlineStr">
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 large tomatoes, chopped\n\n\n1  onion, chopped\n\n\n1  tomatillo, diced (Optional)\n\n\n½ cup chopped fresh cilantro\n\n\n3 cloves garlic, minced\n\n\n1 tablespoon lime juice\n\n\n  salt to taste\n\n\n1  jalapeno pepper, minced'}]</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Gather all ingredients."},{"recipe_directions":"Combine tomatoes, onion, tomatillo, cilantro, garlic, lime juice, and salt in a medium-sized mixing bowl. Mix well."},{"recipe_directions":"Add 1/2 of the jalapeño pepper and taste. If you desire your salsa with more kick, add remaining 1/2 jalapeño."},{"recipe_directions":"Cover the salsa and chill until ready to serve."}]</t>
         </is>
       </c>
-      <c r="J59" s="1" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Salsa Recipes"},{"recipe_tags":"Tomato Salsa Recipes"}]</t>
         </is>
       </c>
-      <c r="K59" s="1" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"53\nCalories\n\n\n1g \nFat\n\n\n12g \nCarbs\n\n\n2g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="60" spans="1:10">
-      <c r="A60" s="1" t="inlineStr">
+    <row r="60">
+      <c r="A60" t="inlineStr">
         <is>
           <t>1699658801-59</t>
         </is>
       </c>
-      <c r="B60" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C60" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D60" s="1" t="inlineStr">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/qkpFUnKGcEvo3NheLOYjNrO8x5g=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/3571915-85fed625e02740e7bcb620b90f06eee6.jpg"
@@ -3926,59 +4039,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E60" s="1" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/7047/ezekiel-bread-i/</t>
         </is>
       </c>
-      <c r="F60" s="1" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>Ezekiel Bread</t>
         </is>
       </c>
-      <c r="G60" s="1" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n20 mins\n\n\nCook Time:\n45 mins\n\n\nAdditional Time:\n 1 hr\n\n\nTotal Time:\n 2 hrs 5 mins\n\n\nServings:\n24 \n\n\nYield:\n2 loaves"}]</t>
         </is>
       </c>
-      <c r="H60" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I60" s="1" t="inlineStr">
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '4 cups warm water (110 degrees F/45 degrees C)\n\n\n1 cup honey\n\n\n½ cup olive oil\n\n\n2 (.25 ounce) packages active dry yeast\n\n\n2 ½ cups wheat berries\n\n\n1 ½ cups spelt flour\n\n\n½ cup barley\n\n\n½ cup millet\n\n\n¼ cup dry green lentils\n\n\n2 tablespoons dry great Northern beans\n\n\n2 tablespoons dry kidney beans\n\n\n2 tablespoons dried pinto beans\n\n\n2 tablespoons salt, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"This Ezekiel bread, made from sprouted grains and beans, is an easy and healthy recipe to make at home."},{"recipe_directions":"Ezekiel bread is a type of whole grain bread that gets its name from an ancient bread formula found in the Bible. Made from sprouted grains and beans, Ezekiel bread is chock-full of healthy vitamins and minerals."},{"recipe_directions":"These are the wholesome ingredients you'll need to make this homemade Ezekiel bread recipe:"},{"recipe_directions":"· Water: You'll need warm water to dissolve the yeast.\n· Honey and oil: Dissolve the yeast with honey and oil for subtle sweetness and moisture.\n· Yeast: Use two packages of active dry yeast for two loaves.\n· Wheat berries: Wheat berries are the whole wheat kernels with the bran and germ intact, but the husk removed.\n· Spelt flour: Spelt flour is a type of whole wheat flour made from the entire grain.\n· Barley: Barley is a chewy cereal grain with a mild taste.\n· Millet: Millet is a small, round grain in the grass family.\n· Beans: You'll need dry green lentils, dry great Northern beans, dry kidney beans, and dry pinto beans.\n· Salt: Salt enhances the overall flavor of the bread."},{"recipe_directions":"You'll find the full, step-by-step recipe below — but here's a brief overview of what you can expect when you make your own Ezekiel bread:"},{"recipe_directions":"1. Activate the yeast with the water, honey, and oil.\n2. Stir the grains and beans together, then grind them in a flour mill.\n3. Add the flour mixture and salt to the yeast mixture. Stir to form a loose dough.\n4. Pour the dough into prepared loaf pans and let rise.\n5. Bake in the preheated oven until the loaves are golden brown."},{"recipe_directions":"No, Ezekiel bread isn't gluten-free. Even though the recipe doesn't contain traditional all-purpose flour, three of the ingredients (wheat berries, spelt flour, and barley) contain gluten."},{"recipe_directions":"Store Ezekiel bread at room temperature for up to three days. After three days, you'll need to freeze it. The best way to freeze Ezekiel bread is in individual slices so you can thaw them as-needed."},{"recipe_directions":"\"This bread has become our favorite,\" says jill stewart. \"I grind and bake it every two weeks. I keep the fresh small loaves in the freezer until we finish the previous loaf, and it is absolutely perfect. I don't just like this bread. It is the BEST bread that I have ever eaten.\""},{"recipe_directions":"\"This is a very hearty bread,\" according to Connie Duran. \"Must be treated like a sweet bread, in that it holds together better if put in a plastic wrap and then used the next day. Very filling. Pleasant texture.\""},{"recipe_directions":"\"This is a great diet meal for the money,\" says MelWad. \"It also makes a great french toast! I ran out of honey last time and substituted a small portion of molasses.\""},{"recipe_directions":"Editorial contributions by Corey Williams"},{"recipe_directions":"Mix water, honey, olive oil, and yeast in a large bowl. Let sit for 3 to 5 minutes."},{"recipe_directions":"Meanwhile, stir together wheat berries, spelt flour, barley, millet, lentils, great northern beans, kidney beans, and pinto beans together until well mixed. Grind in a flour mill."},{"recipe_directions":"Add fresh milled flour mixture and salt to yeast mixture; stir until well mixed, about 10 minutes. The dough will be loose."},{"recipe_directions":"Pour dough into two greased 9x5-inch loaf pans."},{"recipe_directions":"Let rise in a warm place until dough has reached the top of the pan, about 1 hour."},{"recipe_directions":"Preheat the oven to 350 degrees F (175 degrees C)."},{"recipe_directions":"Bake in the preheated oven until loaves are golden brown, 45 to 50 minutes."}]</t>
         </is>
       </c>
-      <c r="J60" s="1" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Bread"},{"recipe_tags":"Yeast Bread Recipes"}]</t>
         </is>
       </c>
-      <c r="K60" s="1" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"221\nCalories\n\n\n5g \nFat\n\n\n40g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="61" spans="1:10">
-      <c r="A61" s="1" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
         <is>
           <t>1699658805-60</t>
         </is>
       </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/mRD-sA-Jz_a0tMl_DLJfvazo1cA=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/1092733-3044d24240554942910a95f92e44d164.jpg"
@@ -3991,59 +4100,55 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E61" s="1" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/236025/salt-and-pepper-skillet-fries/</t>
         </is>
       </c>
-      <c r="F61" s="1" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>Salt and Pepper Skillet Fries</t>
         </is>
       </c>
-      <c r="G61" s="1" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n10 mins\n\n\nCook Time:\n20 mins\n\n\nTotal Time:\n30 mins\n\n\nServings:\n4"}]</t>
         </is>
       </c>
-      <c r="H61" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper"}]</t>
-        </is>
-      </c>
-      <c r="I61" s="1" t="inlineStr">
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '2 tablespoons olive oil\n\n\n1 teaspoon butter\n\n\n3 large potatoes, sliced lengthwise into 1/2-inch circles and cut into 1/2-inch strips\n\n\n¼ teaspoon coarse sea salt\n\n\n¼ teaspoon cracked black pepper'}]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Heat olive oil and butter in a skillet over medium heat."},{"recipe_directions":"Cook and stir potato strips in hot oil mixture until browned on all sides, 20 to 25 minutes."},{"recipe_directions":"Transfer fries to a paper towel-lined plate; season with sea salt and cracked black pepper."}]</t>
         </is>
       </c>
-      <c r="J61" s="1" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Side Dish"},{"recipe_tags":"Fries Recipes"},{"recipe_tags":"French Fries Recipes"}]</t>
         </is>
       </c>
-      <c r="K61" s="1" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"282\nCalories\n\n\n8g \nFat\n\n\n48g \nCarbs\n\n\n6g \nProtein"}]</t>
         </is>
       </c>
     </row>
-    <row r="62" spans="1:10">
-      <c r="A62" s="1" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
         <is>
           <t>1699658809-61</t>
         </is>
       </c>
-      <c r="B62" s="1" t="inlineStr">
-        <is>
-          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
-        </is>
-      </c>
-      <c r="C62" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="D62" s="1" t="inlineStr">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.allrecipes.com/recipes/12155/healthy-recipes/snacks/</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
         <is>
           <t>&lt;img
 src="https://www.allrecipes.com/thmb/Uilpyf5BOpaVzScwubrllWgMhS8=/282x188/filters:no_upscale():max_bytes(150000):strip_icc():focal(479x0:481x2):format(webp)/669625-1497f7fdeb924813abb10abdb8798b1c.jpg"
@@ -4056,42 +4161,43 @@
 Ratings</t>
         </is>
       </c>
-      <c r="E62" s="1" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>https://www.allrecipes.com/recipe/24720/texas-caviar-i/</t>
         </is>
       </c>
-      <c r="F62" s="1" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>Texas Caviar</t>
         </is>
       </c>
-      <c r="G62" s="1" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>[{"recipe_details_table":"Prep Time:\n15 mins\n\n\nAdditional Time:\n 2 hrs\n\n\nTotal Time:\n 2 hrs 15 mins\n\n\nServings:\n16 \n\n\nYield:\n8 cups"}]</t>
         </is>
       </c>
-      <c r="H62" s="1" t="inlineStr">
-        <is>
-          <t>[{"recipe_ingredients":"1 pint cherry tomatoes, quartered\n\n\n1 (15 ounce) can black-eyed peas, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) bottle zesty Italian dressing\n\n\n1  green bell pepper, chopped\n\n\n½  onion, chopped\n\n\n1 bunch green onions, chopped\n\n\n2  jalapeno peppers, chopped\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon ground coriander\n\n\n1 bunch chopped fresh cilantro, or to taste"}]</t>
-        </is>
-      </c>
-      <c r="I62" s="1" t="inlineStr">
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>[{'recipe_ingredients': '1 pint cherry tomatoes, quartered\n\n\n1 (15 ounce) can black-eyed peas, drained\n\n\n1 (15 ounce) can black beans, drained\n\n\n1 (8 ounce) bottle zesty Italian dressing\n\n\n1  green bell pepper, chopped\n\n\n½  onion, chopped\n\n\n1 bunch green onions, chopped\n\n\n2  jalapeno peppers, chopped\n\n\n1 tablespoon minced garlic\n\n\n½ teaspoon ground coriander\n\n\n1 bunch chopped fresh cilantro, or to taste'}]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>[{"recipe_directions":"Mix together tomatoes, black-eyed peas, black beans, Italian dressing, bell pepper, onion, green onions, jalapeño peppers, garlic, and coriander in a large bowl. Cover and chill salad in the refrigerator for about 2 hours."},{"recipe_directions":"Toss salad with desired amount of cilantro to serve."}]</t>
         </is>
       </c>
-      <c r="J62" s="1" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>[{"recipe_tags":"Recipes"},{"recipe_tags":"Appetizers and Snacks"},{"recipe_tags":"Dips and Spreads Recipes"},{"recipe_tags":"Bean Dip Recipes"}]</t>
         </is>
       </c>
-      <c r="K62" s="1" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>[{"recipe_nutrition_details":"107\nCalories\n\n\n5g \nFat\n\n\n12g \nCarbs\n\n\n4g \nProtein"}]</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>